--- a/TradingSimula_18-2022/TF-System#3_1R.xlsx
+++ b/TradingSimula_18-2022/TF-System#3_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$174</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$174</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +594,7 @@
         <v>40207</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
         <v>40235</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-625</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>40268</v>
       </c>
       <c r="B5" t="n">
-        <v>-1149.999999999998</v>
+        <v>-7600</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>40298</v>
       </c>
       <c r="B6" t="n">
-        <v>-1756.250000000001</v>
+        <v>-8448.750000000013</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>40326</v>
       </c>
       <c r="B7" t="n">
-        <v>3412.499999999999</v>
+        <v>35053.89999999998</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>40359</v>
       </c>
       <c r="B8" t="n">
-        <v>228.1250000000079</v>
+        <v>37953.14999999999</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>40389</v>
       </c>
       <c r="B9" t="n">
-        <v>-1714.062999999981</v>
+        <v>24517.68700000004</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         <v>40421</v>
       </c>
       <c r="B10" t="n">
-        <v>-2671.874999999989</v>
+        <v>31891.82500000001</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>40451</v>
       </c>
       <c r="B11" t="n">
-        <v>262.5000000000114</v>
+        <v>22930.77500000004</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>40480</v>
       </c>
       <c r="B12" t="n">
-        <v>3035.937000000021</v>
+        <v>35247.33700000004</v>
       </c>
     </row>
     <row r="13">
@@ -674,7 +674,7 @@
         <v>40512</v>
       </c>
       <c r="B13" t="n">
-        <v>1207.812000000009</v>
+        <v>17815.61200000002</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         <v>40543</v>
       </c>
       <c r="B14" t="n">
-        <v>3071.874000000011</v>
+        <v>9742.749000000033</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>40574</v>
       </c>
       <c r="B15" t="n">
-        <v>-323.4379999999837</v>
+        <v>14528.86200000004</v>
       </c>
     </row>
     <row r="16">
@@ -698,7 +698,7 @@
         <v>40602</v>
       </c>
       <c r="B16" t="n">
-        <v>-1275.000999999984</v>
+        <v>19407.57400000002</v>
       </c>
     </row>
     <row r="17">
@@ -706,7 +706,7 @@
         <v>40633</v>
       </c>
       <c r="B17" t="n">
-        <v>-3695.312999999996</v>
+        <v>7192.986999999963</v>
       </c>
     </row>
     <row r="18">
@@ -714,7 +714,7 @@
         <v>40662</v>
       </c>
       <c r="B18" t="n">
-        <v>-4034.374999999989</v>
+        <v>21918.24999999997</v>
       </c>
     </row>
     <row r="19">
@@ -722,7 +722,7 @@
         <v>40694</v>
       </c>
       <c r="B19" t="n">
-        <v>-3768.749999999987</v>
+        <v>-22327.74999999999</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         <v>40724</v>
       </c>
       <c r="B20" t="n">
-        <v>-6914.062999999986</v>
+        <v>-26318.063</v>
       </c>
     </row>
     <row r="21">
@@ -738,7 +738,7 @@
         <v>40753</v>
       </c>
       <c r="B21" t="n">
-        <v>-7039.062999999973</v>
+        <v>-30112.43799999997</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>40786</v>
       </c>
       <c r="B22" t="n">
-        <v>-3907.812999999984</v>
+        <v>-9692.437999999998</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>40816</v>
       </c>
       <c r="B23" t="n">
-        <v>148.4370000000199</v>
+        <v>18170.06200000001</v>
       </c>
     </row>
     <row r="24">
@@ -762,7 +762,7 @@
         <v>40847</v>
       </c>
       <c r="B24" t="n">
-        <v>-5292.186999999982</v>
+        <v>-21340.56200000001</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>40877</v>
       </c>
       <c r="B25" t="n">
-        <v>-3279.686999999982</v>
+        <v>-25876.18700000005</v>
       </c>
     </row>
     <row r="26">
@@ -778,7 +778,7 @@
         <v>40907</v>
       </c>
       <c r="B26" t="n">
-        <v>-2921.874999999985</v>
+        <v>-24194.62500000003</v>
       </c>
     </row>
     <row r="27">
@@ -786,7 +786,7 @@
         <v>40939</v>
       </c>
       <c r="B27" t="n">
-        <v>-3595.312999999975</v>
+        <v>-20675.33800000003</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         <v>40968</v>
       </c>
       <c r="B28" t="n">
-        <v>-5353.124999999976</v>
+        <v>1563.724999999956</v>
       </c>
     </row>
     <row r="29">
@@ -802,7 +802,7 @@
         <v>40998</v>
       </c>
       <c r="B29" t="n">
-        <v>-6454.687999999986</v>
+        <v>6868.411999999923</v>
       </c>
     </row>
     <row r="30">
@@ -810,7 +810,7 @@
         <v>41029</v>
       </c>
       <c r="B30" t="n">
-        <v>-9075.000999999971</v>
+        <v>-5988.776000000064</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +818,7 @@
         <v>41060</v>
       </c>
       <c r="B31" t="n">
-        <v>-4532.812999999986</v>
+        <v>3677.961999999913</v>
       </c>
     </row>
     <row r="32">
@@ -826,7 +826,7 @@
         <v>41089</v>
       </c>
       <c r="B32" t="n">
-        <v>-6220.312999999984</v>
+        <v>-5271.688000000058</v>
       </c>
     </row>
     <row r="33">
@@ -834,7 +834,7 @@
         <v>41121</v>
       </c>
       <c r="B33" t="n">
-        <v>-6873.438999999977</v>
+        <v>-16247.16400000002</v>
       </c>
     </row>
     <row r="34">
@@ -842,7 +842,7 @@
         <v>41152</v>
       </c>
       <c r="B34" t="n">
-        <v>-10359.37599999998</v>
+        <v>-21680.22600000002</v>
       </c>
     </row>
     <row r="35">
@@ -850,7 +850,7 @@
         <v>41180</v>
       </c>
       <c r="B35" t="n">
-        <v>-13290.62599999999</v>
+        <v>-32114.75100000004</v>
       </c>
     </row>
     <row r="36">
@@ -858,7 +858,7 @@
         <v>41213</v>
       </c>
       <c r="B36" t="n">
-        <v>-12964.06299999999</v>
+        <v>-40723.06300000002</v>
       </c>
     </row>
     <row r="37">
@@ -866,7 +866,7 @@
         <v>41243</v>
       </c>
       <c r="B37" t="n">
-        <v>-14223.43799999999</v>
+        <v>-53524.81300000004</v>
       </c>
     </row>
     <row r="38">
@@ -874,7 +874,7 @@
         <v>41274</v>
       </c>
       <c r="B38" t="n">
-        <v>-12537.50099999999</v>
+        <v>-37854.50100000002</v>
       </c>
     </row>
     <row r="39">
@@ -882,7 +882,7 @@
         <v>41305</v>
       </c>
       <c r="B39" t="n">
-        <v>-14251.56299999999</v>
+        <v>-27022.31300000002</v>
       </c>
     </row>
     <row r="40">
@@ -890,7 +890,7 @@
         <v>41333</v>
       </c>
       <c r="B40" t="n">
-        <v>-10651.56299999999</v>
+        <v>-31628.56300000001</v>
       </c>
     </row>
     <row r="41">
@@ -898,7 +898,7 @@
         <v>41362</v>
       </c>
       <c r="B41" t="n">
-        <v>-10721.87599999999</v>
+        <v>-30218.67600000001</v>
       </c>
     </row>
     <row r="42">
@@ -906,7 +906,7 @@
         <v>41394</v>
       </c>
       <c r="B42" t="n">
-        <v>-13614.06299999999</v>
+        <v>-26271.763</v>
       </c>
     </row>
     <row r="43">
@@ -914,7 +914,7 @@
         <v>41425</v>
       </c>
       <c r="B43" t="n">
-        <v>-11110.93699999999</v>
+        <v>-29586.98700000001</v>
       </c>
     </row>
     <row r="44">
@@ -922,7 +922,7 @@
         <v>41453</v>
       </c>
       <c r="B44" t="n">
-        <v>-16018.74999999999</v>
+        <v>-43519.60000000003</v>
       </c>
     </row>
     <row r="45">
@@ -930,7 +930,7 @@
         <v>41486</v>
       </c>
       <c r="B45" t="n">
-        <v>-18376.56199999998</v>
+        <v>-42101.26200000001</v>
       </c>
     </row>
     <row r="46">
@@ -938,7 +938,7 @@
         <v>41516</v>
       </c>
       <c r="B46" t="n">
-        <v>-17603.12499999998</v>
+        <v>-35847.25000000002</v>
       </c>
     </row>
     <row r="47">
@@ -946,7 +946,7 @@
         <v>41547</v>
       </c>
       <c r="B47" t="n">
-        <v>-16204.68799999997</v>
+        <v>-54198.838</v>
       </c>
     </row>
     <row r="48">
@@ -954,7 +954,7 @@
         <v>41578</v>
       </c>
       <c r="B48" t="n">
-        <v>-16370.31299999998</v>
+        <v>-46304.81299999999</v>
       </c>
     </row>
     <row r="49">
@@ -962,7 +962,7 @@
         <v>41607</v>
       </c>
       <c r="B49" t="n">
-        <v>-14326.56299999997</v>
+        <v>-49058.26299999999</v>
       </c>
     </row>
     <row r="50">
@@ -970,7 +970,7 @@
         <v>41639</v>
       </c>
       <c r="B50" t="n">
-        <v>-14660.93799999997</v>
+        <v>-60485.76300000001</v>
       </c>
     </row>
     <row r="51">
@@ -978,7 +978,7 @@
         <v>41670</v>
       </c>
       <c r="B51" t="n">
-        <v>-14160.93799999998</v>
+        <v>-50706.38799999999</v>
       </c>
     </row>
     <row r="52">
@@ -986,7 +986,7 @@
         <v>41698</v>
       </c>
       <c r="B52" t="n">
-        <v>-16660.93799999997</v>
+        <v>-60438.88799999996</v>
       </c>
     </row>
     <row r="53">
@@ -994,7 +994,7 @@
         <v>41729</v>
       </c>
       <c r="B53" t="n">
-        <v>-18160.93799999998</v>
+        <v>-71578.88799999999</v>
       </c>
     </row>
     <row r="54">
@@ -1002,7 +1002,7 @@
         <v>41759</v>
       </c>
       <c r="B54" t="n">
-        <v>-17292.18799999998</v>
+        <v>-71087.01299999998</v>
       </c>
     </row>
     <row r="55">
@@ -1010,7 +1010,7 @@
         <v>41789</v>
       </c>
       <c r="B55" t="n">
-        <v>-19067.18799999998</v>
+        <v>-71528.26300000001</v>
       </c>
     </row>
     <row r="56">
@@ -1018,7 +1018,7 @@
         <v>41820</v>
       </c>
       <c r="B56" t="n">
-        <v>-16614.06299999998</v>
+        <v>-65382.63799999995</v>
       </c>
     </row>
     <row r="57">
@@ -1026,7 +1026,7 @@
         <v>41851</v>
       </c>
       <c r="B57" t="n">
-        <v>-17357.81299999997</v>
+        <v>-75242.63799999995</v>
       </c>
     </row>
     <row r="58">
@@ -1034,7 +1034,7 @@
         <v>41880</v>
       </c>
       <c r="B58" t="n">
-        <v>-17612.50099999997</v>
+        <v>-66669.70099999996</v>
       </c>
     </row>
     <row r="59">
@@ -1042,7 +1042,7 @@
         <v>41912</v>
       </c>
       <c r="B59" t="n">
-        <v>-15953.12599999996</v>
+        <v>-47600.45099999994</v>
       </c>
     </row>
     <row r="60">
@@ -1050,7 +1050,7 @@
         <v>41943</v>
       </c>
       <c r="B60" t="n">
-        <v>-13493.75099999997</v>
+        <v>-37630.87599999995</v>
       </c>
     </row>
     <row r="61">
@@ -1058,7 +1058,7 @@
         <v>41971</v>
       </c>
       <c r="B61" t="n">
-        <v>-10404.68899999997</v>
+        <v>-2976.46399999996</v>
       </c>
     </row>
     <row r="62">
@@ -1066,7 +1066,7 @@
         <v>42004</v>
       </c>
       <c r="B62" t="n">
-        <v>-10729.68899999997</v>
+        <v>16302.73600000019</v>
       </c>
     </row>
     <row r="63">
@@ -1074,7 +1074,7 @@
         <v>42034</v>
       </c>
       <c r="B63" t="n">
-        <v>-5084.375999999964</v>
+        <v>53662.52400000022</v>
       </c>
     </row>
     <row r="64">
@@ -1082,7 +1082,7 @@
         <v>42062</v>
       </c>
       <c r="B64" t="n">
-        <v>-8837.500999999964</v>
+        <v>23800.47400000037</v>
       </c>
     </row>
     <row r="65">
@@ -1090,7 +1090,7 @@
         <v>42094</v>
       </c>
       <c r="B65" t="n">
-        <v>-4126.563999999963</v>
+        <v>19136.58600000034</v>
       </c>
     </row>
     <row r="66">
@@ -1098,7 +1098,7 @@
         <v>42124</v>
       </c>
       <c r="B66" t="n">
-        <v>-5785.938999999961</v>
+        <v>918.4610000003449</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>42153</v>
       </c>
       <c r="B67" t="n">
-        <v>-6035.938999999958</v>
+        <v>-6472.788999999608</v>
       </c>
     </row>
     <row r="68">
@@ -1114,7 +1114,7 @@
         <v>42185</v>
       </c>
       <c r="B68" t="n">
-        <v>-3717.188999999959</v>
+        <v>-19310.91399999947</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         <v>42216</v>
       </c>
       <c r="B69" t="n">
-        <v>-3850.000999999964</v>
+        <v>-33776.85099999947</v>
       </c>
     </row>
     <row r="70">
@@ -1130,7 +1130,7 @@
         <v>42247</v>
       </c>
       <c r="B70" t="n">
-        <v>-5495.313999999965</v>
+        <v>-42090.46399999932</v>
       </c>
     </row>
     <row r="71">
@@ -1138,7 +1138,7 @@
         <v>42277</v>
       </c>
       <c r="B71" t="n">
-        <v>-5092.188999999965</v>
+        <v>-67175.31399999933</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1146,7 @@
         <v>42307</v>
       </c>
       <c r="B72" t="n">
-        <v>-7765.625999999962</v>
+        <v>-74176.5759999993</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1154,7 @@
         <v>42338</v>
       </c>
       <c r="B73" t="n">
-        <v>-7093.75199999996</v>
+        <v>-71685.05199999933</v>
       </c>
     </row>
     <row r="74">
@@ -1162,7 +1162,7 @@
         <v>42369</v>
       </c>
       <c r="B74" t="n">
-        <v>-4703.126999999962</v>
+        <v>-63940.42699999933</v>
       </c>
     </row>
     <row r="75">
@@ -1170,7 +1170,7 @@
         <v>42398</v>
       </c>
       <c r="B75" t="n">
-        <v>-3979.688999999954</v>
+        <v>-48266.7389999993</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         <v>42429</v>
       </c>
       <c r="B76" t="n">
-        <v>-3867.189999999954</v>
+        <v>-35204.5149999993</v>
       </c>
     </row>
     <row r="77">
@@ -1186,7 +1186,7 @@
         <v>42460</v>
       </c>
       <c r="B77" t="n">
-        <v>-6512.501999999964</v>
+        <v>-45556.52699999931</v>
       </c>
     </row>
     <row r="78">
@@ -1194,7 +1194,7 @@
         <v>42489</v>
       </c>
       <c r="B78" t="n">
-        <v>-7900.001999999955</v>
+        <v>-42427.2519999993</v>
       </c>
     </row>
     <row r="79">
@@ -1202,7 +1202,7 @@
         <v>42521</v>
       </c>
       <c r="B79" t="n">
-        <v>-9203.126999999966</v>
+        <v>-47237.87699999917</v>
       </c>
     </row>
     <row r="80">
@@ -1210,7 +1210,7 @@
         <v>42551</v>
       </c>
       <c r="B80" t="n">
-        <v>-8931.251999999957</v>
+        <v>-40166.62699999903</v>
       </c>
     </row>
     <row r="81">
@@ -1218,7 +1218,7 @@
         <v>42580</v>
       </c>
       <c r="B81" t="n">
-        <v>-9073.439999999955</v>
+        <v>-31504.41499999903</v>
       </c>
     </row>
     <row r="82">
@@ -1226,7 +1226,7 @@
         <v>42613</v>
       </c>
       <c r="B82" t="n">
-        <v>-9100.001999999968</v>
+        <v>-45207.57699999902</v>
       </c>
     </row>
     <row r="83">
@@ -1234,7 +1234,7 @@
         <v>42643</v>
       </c>
       <c r="B83" t="n">
-        <v>-7871.876999999962</v>
+        <v>-70276.32699999884</v>
       </c>
     </row>
     <row r="84">
@@ -1242,7 +1242,7 @@
         <v>42674</v>
       </c>
       <c r="B84" t="n">
-        <v>-3946.87699999996</v>
+        <v>-59736.32699999886</v>
       </c>
     </row>
     <row r="85">
@@ -1250,7 +1250,7 @@
         <v>42704</v>
       </c>
       <c r="B85" t="n">
-        <v>-6401.563999999966</v>
+        <v>-70478.51399999889</v>
       </c>
     </row>
     <row r="86">
@@ -1258,7 +1258,7 @@
         <v>42734</v>
       </c>
       <c r="B86" t="n">
-        <v>-5109.376999999962</v>
+        <v>-72395.7019999989</v>
       </c>
     </row>
     <row r="87">
@@ -1266,7 +1266,7 @@
         <v>42766</v>
       </c>
       <c r="B87" t="n">
-        <v>-6768.751999999968</v>
+        <v>-79855.0769999989</v>
       </c>
     </row>
     <row r="88">
@@ -1274,7 +1274,7 @@
         <v>42794</v>
       </c>
       <c r="B88" t="n">
-        <v>-5809.376999999959</v>
+        <v>-8538.826999998879</v>
       </c>
     </row>
     <row r="89">
@@ -1282,7 +1282,7 @@
         <v>42825</v>
       </c>
       <c r="B89" t="n">
-        <v>-6582.813999999959</v>
+        <v>-23006.23899999889</v>
       </c>
     </row>
     <row r="90">
@@ -1290,7 +1290,7 @@
         <v>42853</v>
       </c>
       <c r="B90" t="n">
-        <v>-7562.501999999973</v>
+        <v>5653.073000001088</v>
       </c>
     </row>
     <row r="91">
@@ -1298,7 +1298,7 @@
         <v>42886</v>
       </c>
       <c r="B91" t="n">
-        <v>-7532.814999999968</v>
+        <v>30003.76000000108</v>
       </c>
     </row>
     <row r="92">
@@ -1306,7 +1306,7 @@
         <v>42916</v>
       </c>
       <c r="B92" t="n">
-        <v>-10853.12699999997</v>
+        <v>59763.3730000011</v>
       </c>
     </row>
     <row r="93">
@@ -1314,7 +1314,7 @@
         <v>42947</v>
       </c>
       <c r="B93" t="n">
-        <v>-11615.62699999996</v>
+        <v>109973.5480000011</v>
       </c>
     </row>
     <row r="94">
@@ -1322,7 +1322,7 @@
         <v>42978</v>
       </c>
       <c r="B94" t="n">
-        <v>-9259.376999999957</v>
+        <v>120058.2730000011</v>
       </c>
     </row>
     <row r="95">
@@ -1330,7 +1330,7 @@
         <v>43007</v>
       </c>
       <c r="B95" t="n">
-        <v>-12887.50299999996</v>
+        <v>156089.5220000011</v>
       </c>
     </row>
     <row r="96">
@@ -1338,7 +1338,7 @@
         <v>43039</v>
       </c>
       <c r="B96" t="n">
-        <v>-13437.50299999995</v>
+        <v>274172.9720000011</v>
       </c>
     </row>
     <row r="97">
@@ -1346,7 +1346,7 @@
         <v>43069</v>
       </c>
       <c r="B97" t="n">
-        <v>-11350.00299999995</v>
+        <v>366314.0220000012</v>
       </c>
     </row>
     <row r="98">
@@ -1354,7 +1354,7 @@
         <v>43098</v>
       </c>
       <c r="B98" t="n">
-        <v>-11295.31499999996</v>
+        <v>420868.2100000012</v>
       </c>
     </row>
     <row r="99">
@@ -1362,7 +1362,7 @@
         <v>43131</v>
       </c>
       <c r="B99" t="n">
-        <v>-5823.439999999953</v>
+        <v>599036.9350000011</v>
       </c>
     </row>
     <row r="100">
@@ -1370,7 +1370,7 @@
         <v>43159</v>
       </c>
       <c r="B100" t="n">
-        <v>-7976.564999999955</v>
+        <v>322881.3100000012</v>
       </c>
     </row>
     <row r="101">
@@ -1378,7 +1378,7 @@
         <v>43188</v>
       </c>
       <c r="B101" t="n">
-        <v>-7114.064999999957</v>
+        <v>310524.8100000012</v>
       </c>
     </row>
     <row r="102">
@@ -1386,7 +1386,7 @@
         <v>43220</v>
       </c>
       <c r="B102" t="n">
-        <v>-7923.439999999957</v>
+        <v>298828.5100000012</v>
       </c>
     </row>
     <row r="103">
@@ -1394,7 +1394,7 @@
         <v>43251</v>
       </c>
       <c r="B103" t="n">
-        <v>-5776.564999999939</v>
+        <v>294481.4100000012</v>
       </c>
     </row>
     <row r="104">
@@ -1402,7 +1402,7 @@
         <v>43280</v>
       </c>
       <c r="B104" t="n">
-        <v>-5293.75199999994</v>
+        <v>288051.6230000011</v>
       </c>
     </row>
     <row r="105">
@@ -1410,7 +1410,7 @@
         <v>43312</v>
       </c>
       <c r="B105" t="n">
-        <v>-5248.439999999942</v>
+        <v>280164.1100000012</v>
       </c>
     </row>
     <row r="106">
@@ -1418,7 +1418,7 @@
         <v>43343</v>
       </c>
       <c r="B106" t="n">
-        <v>-3578.126999999948</v>
+        <v>286626.2980000012</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         <v>43371</v>
       </c>
       <c r="B107" t="n">
-        <v>-7887.501999999955</v>
+        <v>273059.6980000012</v>
       </c>
     </row>
     <row r="108">
@@ -1434,7 +1434,7 @@
         <v>43404</v>
       </c>
       <c r="B108" t="n">
-        <v>-9793.751999999949</v>
+        <v>256218.2980000013</v>
       </c>
     </row>
     <row r="109">
@@ -1442,7 +1442,7 @@
         <v>43434</v>
       </c>
       <c r="B109" t="n">
-        <v>-9450.001999999946</v>
+        <v>301858.5980000013</v>
       </c>
     </row>
     <row r="110">
@@ -1450,7 +1450,7 @@
         <v>43465</v>
       </c>
       <c r="B110" t="n">
-        <v>-10285.93999999996</v>
+        <v>338003.7100000014</v>
       </c>
     </row>
     <row r="111">
@@ -1458,7 +1458,7 @@
         <v>43496</v>
       </c>
       <c r="B111" t="n">
-        <v>-13482.81499999994</v>
+        <v>298704.6100000014</v>
       </c>
     </row>
     <row r="112">
@@ -1466,7 +1466,7 @@
         <v>43524</v>
       </c>
       <c r="B112" t="n">
-        <v>-13079.68999999994</v>
+        <v>298347.0100000015</v>
       </c>
     </row>
     <row r="113">
@@ -1474,7 +1474,7 @@
         <v>43553</v>
       </c>
       <c r="B113" t="n">
-        <v>-13570.31499999994</v>
+        <v>315096.9350000015</v>
       </c>
     </row>
     <row r="114">
@@ -1482,7 +1482,7 @@
         <v>43585</v>
       </c>
       <c r="B114" t="n">
-        <v>-13676.56499999995</v>
+        <v>334538.5100000015</v>
       </c>
     </row>
     <row r="115">
@@ -1490,7 +1490,7 @@
         <v>43616</v>
       </c>
       <c r="B115" t="n">
-        <v>-14815.62699999995</v>
+        <v>309871.0980000016</v>
       </c>
     </row>
     <row r="116">
@@ -1498,7 +1498,7 @@
         <v>43644</v>
       </c>
       <c r="B116" t="n">
-        <v>-13689.06499999994</v>
+        <v>307083.8600000016</v>
       </c>
     </row>
     <row r="117">
@@ -1506,7 +1506,7 @@
         <v>43677</v>
       </c>
       <c r="B117" t="n">
-        <v>-13278.12699999993</v>
+        <v>300181.6730000015</v>
       </c>
     </row>
     <row r="118">
@@ -1514,7 +1514,7 @@
         <v>43707</v>
       </c>
       <c r="B118" t="n">
-        <v>-11132.81499999994</v>
+        <v>303573.8600000017</v>
       </c>
     </row>
     <row r="119">
@@ -1522,7 +1522,7 @@
         <v>43738</v>
       </c>
       <c r="B119" t="n">
-        <v>-15292.18999999993</v>
+        <v>282398.5350000017</v>
       </c>
     </row>
     <row r="120">
@@ -1530,7 +1530,7 @@
         <v>43769</v>
       </c>
       <c r="B120" t="n">
-        <v>-11440.62799999993</v>
+        <v>279681.9720000017</v>
       </c>
     </row>
     <row r="121">
@@ -1538,7 +1538,7 @@
         <v>43798</v>
       </c>
       <c r="B121" t="n">
-        <v>-10995.31499999993</v>
+        <v>278863.5350000017</v>
       </c>
     </row>
     <row r="122">
@@ -1546,7 +1546,7 @@
         <v>43830</v>
       </c>
       <c r="B122" t="n">
-        <v>-12667.18999999994</v>
+        <v>289251.6600000017</v>
       </c>
     </row>
     <row r="123">
@@ -1554,7 +1554,7 @@
         <v>43861</v>
       </c>
       <c r="B123" t="n">
-        <v>-13909.37799999993</v>
+        <v>305343.5470000017</v>
       </c>
     </row>
     <row r="124">
@@ -1562,7 +1562,7 @@
         <v>43889</v>
       </c>
       <c r="B124" t="n">
-        <v>-11395.31499999993</v>
+        <v>333651.8350000021</v>
       </c>
     </row>
     <row r="125">
@@ -1570,7 +1570,7 @@
         <v>43921</v>
       </c>
       <c r="B125" t="n">
-        <v>-6573.439999999935</v>
+        <v>416784.4600000022</v>
       </c>
     </row>
     <row r="126">
@@ -1578,7 +1578,7 @@
         <v>43951</v>
       </c>
       <c r="B126" t="n">
-        <v>-7360.939999999931</v>
+        <v>393247.910000002</v>
       </c>
     </row>
     <row r="127">
@@ -1586,7 +1586,7 @@
         <v>43980</v>
       </c>
       <c r="B127" t="n">
-        <v>-5323.439999999928</v>
+        <v>387329.7350000021</v>
       </c>
     </row>
     <row r="128">
@@ -1594,7 +1594,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>-10387.50199999992</v>
+        <v>358154.7980000021</v>
       </c>
     </row>
     <row r="129">
@@ -1602,7 +1602,7 @@
         <v>44043</v>
       </c>
       <c r="B129" t="n">
-        <v>-5560.93999999992</v>
+        <v>370318.5100000021</v>
       </c>
     </row>
     <row r="130">
@@ -1610,7 +1610,7 @@
         <v>44074</v>
       </c>
       <c r="B130" t="n">
-        <v>-4503.126999999929</v>
+        <v>372155.1730000021</v>
       </c>
     </row>
     <row r="131">
@@ -1618,7 +1618,7 @@
         <v>44104</v>
       </c>
       <c r="B131" t="n">
-        <v>-6409.376999999933</v>
+        <v>341092.9730000021</v>
       </c>
     </row>
     <row r="132">
@@ -1626,7 +1626,7 @@
         <v>44134</v>
       </c>
       <c r="B132" t="n">
-        <v>-6335.938999999924</v>
+        <v>314040.1610000021</v>
       </c>
     </row>
     <row r="133">
@@ -1634,7 +1634,7 @@
         <v>44165</v>
       </c>
       <c r="B133" t="n">
-        <v>-8839.063999999924</v>
+        <v>316407.0360000022</v>
       </c>
     </row>
     <row r="134">
@@ -1642,7 +1642,7 @@
         <v>44196</v>
       </c>
       <c r="B134" t="n">
-        <v>-10921.87699999992</v>
+        <v>320856.7230000022</v>
       </c>
     </row>
     <row r="135">
@@ -1650,7 +1650,7 @@
         <v>44225</v>
       </c>
       <c r="B135" t="n">
-        <v>-10345.31399999991</v>
+        <v>310422.6610000022</v>
       </c>
     </row>
     <row r="136">
@@ -1658,7 +1658,7 @@
         <v>44253</v>
       </c>
       <c r="B136" t="n">
-        <v>-7300.001999999911</v>
+        <v>330180.6730000022</v>
       </c>
     </row>
     <row r="137">
@@ -1666,7 +1666,7 @@
         <v>44286</v>
       </c>
       <c r="B137" t="n">
-        <v>-7792.18899999992</v>
+        <v>336684.8360000022</v>
       </c>
     </row>
     <row r="138">
@@ -1674,7 +1674,7 @@
         <v>44316</v>
       </c>
       <c r="B138" t="n">
-        <v>-8143.751999999911</v>
+        <v>341852.4230000022</v>
       </c>
     </row>
     <row r="139">
@@ -1682,7 +1682,7 @@
         <v>44344</v>
       </c>
       <c r="B139" t="n">
-        <v>-6232.813999999917</v>
+        <v>332086.0360000024</v>
       </c>
     </row>
     <row r="140">
@@ -1690,7 +1690,7 @@
         <v>44377</v>
       </c>
       <c r="B140" t="n">
-        <v>-9104.688999999924</v>
+        <v>349910.5110000024</v>
       </c>
     </row>
     <row r="141">
@@ -1698,7 +1698,7 @@
         <v>44407</v>
       </c>
       <c r="B141" t="n">
-        <v>-8664.063999999935</v>
+        <v>342259.3610000024</v>
       </c>
     </row>
     <row r="142">
@@ -1706,7 +1706,7 @@
         <v>44439</v>
       </c>
       <c r="B142" t="n">
-        <v>-8070.313999999931</v>
+        <v>361086.8610000024</v>
       </c>
     </row>
     <row r="143">
@@ -1714,7 +1714,7 @@
         <v>44469</v>
       </c>
       <c r="B143" t="n">
-        <v>-7265.625999999933</v>
+        <v>332209.6490000025</v>
       </c>
     </row>
     <row r="144">
@@ -1722,7 +1722,7 @@
         <v>44498</v>
       </c>
       <c r="B144" t="n">
-        <v>-10839.06399999992</v>
+        <v>334361.7110000026</v>
       </c>
     </row>
     <row r="145">
@@ -1730,7 +1730,7 @@
         <v>44530</v>
       </c>
       <c r="B145" t="n">
-        <v>-13632.81399999994</v>
+        <v>299615.5860000026</v>
       </c>
     </row>
     <row r="146">
@@ -1738,7 +1738,7 @@
         <v>44561</v>
       </c>
       <c r="B146" t="n">
-        <v>-11692.18899999994</v>
+        <v>270608.7110000027</v>
       </c>
     </row>
     <row r="147">
@@ -1746,7 +1746,7 @@
         <v>44592</v>
       </c>
       <c r="B147" t="n">
-        <v>-10393.75199999993</v>
+        <v>245140.4980000028</v>
       </c>
     </row>
     <row r="148">
@@ -1754,7 +1754,7 @@
         <v>44620</v>
       </c>
       <c r="B148" t="n">
-        <v>-10057.81399999993</v>
+        <v>263037.7360000028</v>
       </c>
     </row>
     <row r="149">
@@ -1762,7 +1762,215 @@
         <v>44651</v>
       </c>
       <c r="B149" t="n">
-        <v>-17742.18799999994</v>
+        <v>286773.9120000029</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B150" t="n">
+        <v>286773.9120000029</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B151" t="n">
+        <v>281718.9120000029</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B152" t="n">
+        <v>276658.912000003</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B153" t="n">
+        <v>276658.912000003</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B154" t="n">
+        <v>266558.912000003</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B155" t="n">
+        <v>266558.912000003</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B156" t="n">
+        <v>261508.912000003</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B157" t="n">
+        <v>261508.912000003</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B158" t="n">
+        <v>261508.912000003</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B159" t="n">
+        <v>261508.912000003</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B160" t="n">
+        <v>256458.912000003</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B161" t="n">
+        <v>251398.9120000032</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B162" t="n">
+        <v>251398.9120000032</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B163" t="n">
+        <v>246348.9120000032</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B164" t="n">
+        <v>253353.9120000032</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B165" t="n">
+        <v>263763.9120000032</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B166" t="n">
+        <v>243423.9120000032</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B167" t="n">
+        <v>298223.9120000032</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B168" t="n">
+        <v>357223.9120000032</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B169" t="n">
+        <v>251923.9120000032</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B170" t="n">
+        <v>256848.9120000032</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B171" t="n">
+        <v>241823.9120000032</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B172" t="n">
+        <v>236773.9120000032</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B173" t="n">
+        <v>236773.9120000032</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B174" t="n">
+        <v>231343.9120000033</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B175" t="n">
+        <v>231343.9120000033</v>
       </c>
     </row>
   </sheetData>

--- a/TradingSimula_18-2022/TF-System#3_1R.xlsx
+++ b/TradingSimula_18-2022/TF-System#3_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$174</f>
+              <f>'EquityCurve'!$A$3:$A$148</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$174</f>
+              <f>'EquityCurve'!$B$2:$B$148</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +594,7 @@
         <v>40207</v>
       </c>
       <c r="B3" t="n">
-        <v>1025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
         <v>40235</v>
       </c>
       <c r="B4" t="n">
-        <v>-625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>40268</v>
       </c>
       <c r="B5" t="n">
-        <v>-7600</v>
+        <v>-2500.000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>40298</v>
       </c>
       <c r="B6" t="n">
-        <v>-8448.750000000013</v>
+        <v>174.9999999999807</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>40326</v>
       </c>
       <c r="B7" t="n">
-        <v>35053.89999999998</v>
+        <v>13012.49999999998</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>40359</v>
       </c>
       <c r="B8" t="n">
-        <v>37953.14999999999</v>
+        <v>13424.99999999999</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>40389</v>
       </c>
       <c r="B9" t="n">
-        <v>24517.68700000004</v>
+        <v>2600.000000000014</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         <v>40421</v>
       </c>
       <c r="B10" t="n">
-        <v>31891.82500000001</v>
+        <v>-2068.749999999991</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>40451</v>
       </c>
       <c r="B11" t="n">
-        <v>22930.77500000004</v>
+        <v>-2068.749999999991</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>40480</v>
       </c>
       <c r="B12" t="n">
-        <v>35247.33700000004</v>
+        <v>-2068.749999999991</v>
       </c>
     </row>
     <row r="13">
@@ -674,7 +674,7 @@
         <v>40512</v>
       </c>
       <c r="B13" t="n">
-        <v>17815.61200000002</v>
+        <v>7918.749999999991</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         <v>40543</v>
       </c>
       <c r="B14" t="n">
-        <v>9742.749000000033</v>
+        <v>3031.250000000002</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>40574</v>
       </c>
       <c r="B15" t="n">
-        <v>14528.86200000004</v>
+        <v>-1093.749999999988</v>
       </c>
     </row>
     <row r="16">
@@ -698,7 +698,7 @@
         <v>40602</v>
       </c>
       <c r="B16" t="n">
-        <v>19407.57400000002</v>
+        <v>-2506.249999999999</v>
       </c>
     </row>
     <row r="17">
@@ -706,7 +706,7 @@
         <v>40633</v>
       </c>
       <c r="B17" t="n">
-        <v>7192.986999999963</v>
+        <v>-7125.000000000009</v>
       </c>
     </row>
     <row r="18">
@@ -714,7 +714,7 @@
         <v>40662</v>
       </c>
       <c r="B18" t="n">
-        <v>21918.24999999997</v>
+        <v>-3425.000000000028</v>
       </c>
     </row>
     <row r="19">
@@ -722,7 +722,7 @@
         <v>40694</v>
       </c>
       <c r="B19" t="n">
-        <v>-22327.74999999999</v>
+        <v>-15837.5</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         <v>40724</v>
       </c>
       <c r="B20" t="n">
-        <v>-26318.063</v>
+        <v>-17231.25</v>
       </c>
     </row>
     <row r="21">
@@ -738,7 +738,7 @@
         <v>40753</v>
       </c>
       <c r="B21" t="n">
-        <v>-30112.43799999997</v>
+        <v>-17231.25</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>40786</v>
       </c>
       <c r="B22" t="n">
-        <v>-9692.437999999998</v>
+        <v>-17231.25</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>40816</v>
       </c>
       <c r="B23" t="n">
-        <v>18170.06200000001</v>
+        <v>-17231.25</v>
       </c>
     </row>
     <row r="24">
@@ -762,7 +762,7 @@
         <v>40847</v>
       </c>
       <c r="B24" t="n">
-        <v>-21340.56200000001</v>
+        <v>-17231.25</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>40877</v>
       </c>
       <c r="B25" t="n">
-        <v>-25876.18700000005</v>
+        <v>-17231.25</v>
       </c>
     </row>
     <row r="26">
@@ -778,7 +778,7 @@
         <v>40907</v>
       </c>
       <c r="B26" t="n">
-        <v>-24194.62500000003</v>
+        <v>-17231.25</v>
       </c>
     </row>
     <row r="27">
@@ -786,7 +786,7 @@
         <v>40939</v>
       </c>
       <c r="B27" t="n">
-        <v>-20675.33800000003</v>
+        <v>-22287.50000000002</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         <v>40968</v>
       </c>
       <c r="B28" t="n">
-        <v>1563.724999999956</v>
+        <v>-21675.00000000003</v>
       </c>
     </row>
     <row r="29">
@@ -802,7 +802,7 @@
         <v>40998</v>
       </c>
       <c r="B29" t="n">
-        <v>6868.411999999923</v>
+        <v>-21675.00000000003</v>
       </c>
     </row>
     <row r="30">
@@ -810,7 +810,7 @@
         <v>41029</v>
       </c>
       <c r="B30" t="n">
-        <v>-5988.776000000064</v>
+        <v>-23012.50000000003</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +818,7 @@
         <v>41060</v>
       </c>
       <c r="B31" t="n">
-        <v>3677.961999999913</v>
+        <v>-27525.00000000003</v>
       </c>
     </row>
     <row r="32">
@@ -826,7 +826,7 @@
         <v>41089</v>
       </c>
       <c r="B32" t="n">
-        <v>-5271.688000000058</v>
+        <v>-27525.00000000003</v>
       </c>
     </row>
     <row r="33">
@@ -834,7 +834,7 @@
         <v>41121</v>
       </c>
       <c r="B33" t="n">
-        <v>-16247.16400000002</v>
+        <v>-29337.50000000003</v>
       </c>
     </row>
     <row r="34">
@@ -842,7 +842,7 @@
         <v>41152</v>
       </c>
       <c r="B34" t="n">
-        <v>-21680.22600000002</v>
+        <v>-32581.25000000002</v>
       </c>
     </row>
     <row r="35">
@@ -850,7 +850,7 @@
         <v>41180</v>
       </c>
       <c r="B35" t="n">
-        <v>-32114.75100000004</v>
+        <v>-31918.75000000001</v>
       </c>
     </row>
     <row r="36">
@@ -858,7 +858,7 @@
         <v>41213</v>
       </c>
       <c r="B36" t="n">
-        <v>-40723.06300000002</v>
+        <v>-30606.25000000002</v>
       </c>
     </row>
     <row r="37">
@@ -866,7 +866,7 @@
         <v>41243</v>
       </c>
       <c r="B37" t="n">
-        <v>-53524.81300000004</v>
+        <v>-30193.75000000004</v>
       </c>
     </row>
     <row r="38">
@@ -874,7 +874,7 @@
         <v>41274</v>
       </c>
       <c r="B38" t="n">
-        <v>-37854.50100000002</v>
+        <v>-27756.25000000003</v>
       </c>
     </row>
     <row r="39">
@@ -882,7 +882,7 @@
         <v>41305</v>
       </c>
       <c r="B39" t="n">
-        <v>-27022.31300000002</v>
+        <v>-23131.25000000001</v>
       </c>
     </row>
     <row r="40">
@@ -890,7 +890,7 @@
         <v>41333</v>
       </c>
       <c r="B40" t="n">
-        <v>-31628.56300000001</v>
+        <v>-28168.75000000001</v>
       </c>
     </row>
     <row r="41">
@@ -898,7 +898,7 @@
         <v>41362</v>
       </c>
       <c r="B41" t="n">
-        <v>-30218.67600000001</v>
+        <v>-24968.75</v>
       </c>
     </row>
     <row r="42">
@@ -906,7 +906,7 @@
         <v>41394</v>
       </c>
       <c r="B42" t="n">
-        <v>-26271.763</v>
+        <v>-29256.25</v>
       </c>
     </row>
     <row r="43">
@@ -914,7 +914,7 @@
         <v>41425</v>
       </c>
       <c r="B43" t="n">
-        <v>-29586.98700000001</v>
+        <v>-26968.75000000001</v>
       </c>
     </row>
     <row r="44">
@@ -922,7 +922,7 @@
         <v>41453</v>
       </c>
       <c r="B44" t="n">
-        <v>-43519.60000000003</v>
+        <v>-27456.25000000001</v>
       </c>
     </row>
     <row r="45">
@@ -930,7 +930,7 @@
         <v>41486</v>
       </c>
       <c r="B45" t="n">
-        <v>-42101.26200000001</v>
+        <v>-31406.25000000002</v>
       </c>
     </row>
     <row r="46">
@@ -938,7 +938,7 @@
         <v>41516</v>
       </c>
       <c r="B46" t="n">
-        <v>-35847.25000000002</v>
+        <v>-29768.75</v>
       </c>
     </row>
     <row r="47">
@@ -946,7 +946,7 @@
         <v>41547</v>
       </c>
       <c r="B47" t="n">
-        <v>-54198.838</v>
+        <v>-33937.50000000001</v>
       </c>
     </row>
     <row r="48">
@@ -954,7 +954,7 @@
         <v>41578</v>
       </c>
       <c r="B48" t="n">
-        <v>-46304.81299999999</v>
+        <v>-35025</v>
       </c>
     </row>
     <row r="49">
@@ -962,7 +962,7 @@
         <v>41607</v>
       </c>
       <c r="B49" t="n">
-        <v>-49058.26299999999</v>
+        <v>-37487.50000000001</v>
       </c>
     </row>
     <row r="50">
@@ -970,7 +970,7 @@
         <v>41639</v>
       </c>
       <c r="B50" t="n">
-        <v>-60485.76300000001</v>
+        <v>-41362.50000000001</v>
       </c>
     </row>
     <row r="51">
@@ -978,7 +978,7 @@
         <v>41670</v>
       </c>
       <c r="B51" t="n">
-        <v>-50706.38799999999</v>
+        <v>-41362.50000000001</v>
       </c>
     </row>
     <row r="52">
@@ -986,7 +986,7 @@
         <v>41698</v>
       </c>
       <c r="B52" t="n">
-        <v>-60438.88799999996</v>
+        <v>-41362.50000000001</v>
       </c>
     </row>
     <row r="53">
@@ -994,7 +994,7 @@
         <v>41729</v>
       </c>
       <c r="B53" t="n">
-        <v>-71578.88799999999</v>
+        <v>-42550.00000000001</v>
       </c>
     </row>
     <row r="54">
@@ -1002,7 +1002,7 @@
         <v>41759</v>
       </c>
       <c r="B54" t="n">
-        <v>-71087.01299999998</v>
+        <v>-41350.00000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1010,7 +1010,7 @@
         <v>41789</v>
       </c>
       <c r="B55" t="n">
-        <v>-71528.26300000001</v>
+        <v>-44300.00000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1018,7 +1018,7 @@
         <v>41820</v>
       </c>
       <c r="B56" t="n">
-        <v>-65382.63799999995</v>
+        <v>-44524.99999999999</v>
       </c>
     </row>
     <row r="57">
@@ -1026,7 +1026,7 @@
         <v>41851</v>
       </c>
       <c r="B57" t="n">
-        <v>-75242.63799999995</v>
+        <v>-40699.99999999997</v>
       </c>
     </row>
     <row r="58">
@@ -1034,7 +1034,7 @@
         <v>41880</v>
       </c>
       <c r="B58" t="n">
-        <v>-66669.70099999996</v>
+        <v>-37487.49999999999</v>
       </c>
     </row>
     <row r="59">
@@ -1042,7 +1042,7 @@
         <v>41912</v>
       </c>
       <c r="B59" t="n">
-        <v>-47600.45099999994</v>
+        <v>-31099.99999999998</v>
       </c>
     </row>
     <row r="60">
@@ -1050,7 +1050,7 @@
         <v>41943</v>
       </c>
       <c r="B60" t="n">
-        <v>-37630.87599999995</v>
+        <v>-29787.49999999998</v>
       </c>
     </row>
     <row r="61">
@@ -1058,7 +1058,7 @@
         <v>41971</v>
       </c>
       <c r="B61" t="n">
-        <v>-2976.46399999996</v>
+        <v>-28612.49999999997</v>
       </c>
     </row>
     <row r="62">
@@ -1066,7 +1066,7 @@
         <v>42004</v>
       </c>
       <c r="B62" t="n">
-        <v>16302.73600000019</v>
+        <v>-24387.49999999999</v>
       </c>
     </row>
     <row r="63">
@@ -1074,7 +1074,7 @@
         <v>42034</v>
       </c>
       <c r="B63" t="n">
-        <v>53662.52400000022</v>
+        <v>-14249.99999999997</v>
       </c>
     </row>
     <row r="64">
@@ -1082,7 +1082,7 @@
         <v>42062</v>
       </c>
       <c r="B64" t="n">
-        <v>23800.47400000037</v>
+        <v>-12987.49999999997</v>
       </c>
     </row>
     <row r="65">
@@ -1090,7 +1090,7 @@
         <v>42094</v>
       </c>
       <c r="B65" t="n">
-        <v>19136.58600000034</v>
+        <v>-7399.999999999978</v>
       </c>
     </row>
     <row r="66">
@@ -1098,7 +1098,7 @@
         <v>42124</v>
       </c>
       <c r="B66" t="n">
-        <v>918.4610000003449</v>
+        <v>-13799.99999999999</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>42153</v>
       </c>
       <c r="B67" t="n">
-        <v>-6472.788999999608</v>
+        <v>-20043.74999999997</v>
       </c>
     </row>
     <row r="68">
@@ -1114,7 +1114,7 @@
         <v>42185</v>
       </c>
       <c r="B68" t="n">
-        <v>-19310.91399999947</v>
+        <v>-20043.74999999997</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         <v>42216</v>
       </c>
       <c r="B69" t="n">
-        <v>-33776.85099999947</v>
+        <v>-20043.74999999997</v>
       </c>
     </row>
     <row r="70">
@@ -1130,7 +1130,7 @@
         <v>42247</v>
       </c>
       <c r="B70" t="n">
-        <v>-42090.46399999932</v>
+        <v>-20043.74999999997</v>
       </c>
     </row>
     <row r="71">
@@ -1138,7 +1138,7 @@
         <v>42277</v>
       </c>
       <c r="B71" t="n">
-        <v>-67175.31399999933</v>
+        <v>-20043.74999999997</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1146,7 @@
         <v>42307</v>
       </c>
       <c r="B72" t="n">
-        <v>-74176.5759999993</v>
+        <v>-20043.74999999997</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1154,7 @@
         <v>42338</v>
       </c>
       <c r="B73" t="n">
-        <v>-71685.05199999933</v>
+        <v>-19506.24999999997</v>
       </c>
     </row>
     <row r="74">
@@ -1162,7 +1162,7 @@
         <v>42369</v>
       </c>
       <c r="B74" t="n">
-        <v>-63940.42699999933</v>
+        <v>-25099.99999999996</v>
       </c>
     </row>
     <row r="75">
@@ -1170,7 +1170,7 @@
         <v>42398</v>
       </c>
       <c r="B75" t="n">
-        <v>-48266.7389999993</v>
+        <v>-25099.99999999996</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         <v>42429</v>
       </c>
       <c r="B76" t="n">
-        <v>-35204.5149999993</v>
+        <v>-27824.99999999996</v>
       </c>
     </row>
     <row r="77">
@@ -1186,7 +1186,7 @@
         <v>42460</v>
       </c>
       <c r="B77" t="n">
-        <v>-45556.52699999931</v>
+        <v>-21643.74999999996</v>
       </c>
     </row>
     <row r="78">
@@ -1194,7 +1194,7 @@
         <v>42489</v>
       </c>
       <c r="B78" t="n">
-        <v>-42427.2519999993</v>
+        <v>-20981.24999999995</v>
       </c>
     </row>
     <row r="79">
@@ -1202,7 +1202,7 @@
         <v>42521</v>
       </c>
       <c r="B79" t="n">
-        <v>-47237.87699999917</v>
+        <v>-23268.74999999996</v>
       </c>
     </row>
     <row r="80">
@@ -1210,7 +1210,7 @@
         <v>42551</v>
       </c>
       <c r="B80" t="n">
-        <v>-40166.62699999903</v>
+        <v>-22506.24999999996</v>
       </c>
     </row>
     <row r="81">
@@ -1218,7 +1218,7 @@
         <v>42580</v>
       </c>
       <c r="B81" t="n">
-        <v>-31504.41499999903</v>
+        <v>-23681.24999999997</v>
       </c>
     </row>
     <row r="82">
@@ -1226,7 +1226,7 @@
         <v>42613</v>
       </c>
       <c r="B82" t="n">
-        <v>-45207.57699999902</v>
+        <v>-23243.74999999996</v>
       </c>
     </row>
     <row r="83">
@@ -1234,7 +1234,7 @@
         <v>42643</v>
       </c>
       <c r="B83" t="n">
-        <v>-70276.32699999884</v>
+        <v>-24106.24999999995</v>
       </c>
     </row>
     <row r="84">
@@ -1242,7 +1242,7 @@
         <v>42674</v>
       </c>
       <c r="B84" t="n">
-        <v>-59736.32699999886</v>
+        <v>-20481.24999999996</v>
       </c>
     </row>
     <row r="85">
@@ -1250,7 +1250,7 @@
         <v>42704</v>
       </c>
       <c r="B85" t="n">
-        <v>-70478.51399999889</v>
+        <v>-24174.99999999997</v>
       </c>
     </row>
     <row r="86">
@@ -1258,7 +1258,7 @@
         <v>42734</v>
       </c>
       <c r="B86" t="n">
-        <v>-72395.7019999989</v>
+        <v>-23224.99999999999</v>
       </c>
     </row>
     <row r="87">
@@ -1266,7 +1266,7 @@
         <v>42766</v>
       </c>
       <c r="B87" t="n">
-        <v>-79855.0769999989</v>
+        <v>-26312.49999999998</v>
       </c>
     </row>
     <row r="88">
@@ -1274,7 +1274,7 @@
         <v>42794</v>
       </c>
       <c r="B88" t="n">
-        <v>-8538.826999998879</v>
+        <v>-23518.74999999997</v>
       </c>
     </row>
     <row r="89">
@@ -1282,7 +1282,7 @@
         <v>42825</v>
       </c>
       <c r="B89" t="n">
-        <v>-23006.23899999889</v>
+        <v>-24456.24999999998</v>
       </c>
     </row>
     <row r="90">
@@ -1290,7 +1290,7 @@
         <v>42853</v>
       </c>
       <c r="B90" t="n">
-        <v>5653.073000001088</v>
+        <v>-26943.74999999998</v>
       </c>
     </row>
     <row r="91">
@@ -1298,7 +1298,7 @@
         <v>42886</v>
       </c>
       <c r="B91" t="n">
-        <v>30003.76000000108</v>
+        <v>-27593.75</v>
       </c>
     </row>
     <row r="92">
@@ -1306,7 +1306,7 @@
         <v>42916</v>
       </c>
       <c r="B92" t="n">
-        <v>59763.3730000011</v>
+        <v>-25637.49999999997</v>
       </c>
     </row>
     <row r="93">
@@ -1314,7 +1314,7 @@
         <v>42947</v>
       </c>
       <c r="B93" t="n">
-        <v>109973.5480000011</v>
+        <v>-20718.74999999997</v>
       </c>
     </row>
     <row r="94">
@@ -1322,7 +1322,7 @@
         <v>42978</v>
       </c>
       <c r="B94" t="n">
-        <v>120058.2730000011</v>
+        <v>-20074.99999999998</v>
       </c>
     </row>
     <row r="95">
@@ -1330,7 +1330,7 @@
         <v>43007</v>
       </c>
       <c r="B95" t="n">
-        <v>156089.5220000011</v>
+        <v>-22775.00000000001</v>
       </c>
     </row>
     <row r="96">
@@ -1338,7 +1338,7 @@
         <v>43039</v>
       </c>
       <c r="B96" t="n">
-        <v>274172.9720000011</v>
+        <v>-20481.25</v>
       </c>
     </row>
     <row r="97">
@@ -1346,7 +1346,7 @@
         <v>43069</v>
       </c>
       <c r="B97" t="n">
-        <v>366314.0220000012</v>
+        <v>-23318.75</v>
       </c>
     </row>
     <row r="98">
@@ -1354,7 +1354,7 @@
         <v>43098</v>
       </c>
       <c r="B98" t="n">
-        <v>420868.2100000012</v>
+        <v>-24481.25000000001</v>
       </c>
     </row>
     <row r="99">
@@ -1362,7 +1362,7 @@
         <v>43131</v>
       </c>
       <c r="B99" t="n">
-        <v>599036.9350000011</v>
+        <v>-25906.25000000003</v>
       </c>
     </row>
     <row r="100">
@@ -1370,7 +1370,7 @@
         <v>43159</v>
       </c>
       <c r="B100" t="n">
-        <v>322881.3100000012</v>
+        <v>-28787.50000000003</v>
       </c>
     </row>
     <row r="101">
@@ -1378,7 +1378,7 @@
         <v>43188</v>
       </c>
       <c r="B101" t="n">
-        <v>310524.8100000012</v>
+        <v>-28087.50000000002</v>
       </c>
     </row>
     <row r="102">
@@ -1386,7 +1386,7 @@
         <v>43220</v>
       </c>
       <c r="B102" t="n">
-        <v>298828.5100000012</v>
+        <v>-31031.25000000001</v>
       </c>
     </row>
     <row r="103">
@@ -1394,7 +1394,7 @@
         <v>43251</v>
       </c>
       <c r="B103" t="n">
-        <v>294481.4100000012</v>
+        <v>-27975.00000000001</v>
       </c>
     </row>
     <row r="104">
@@ -1402,7 +1402,7 @@
         <v>43280</v>
       </c>
       <c r="B104" t="n">
-        <v>288051.6230000011</v>
+        <v>-27381.25000000001</v>
       </c>
     </row>
     <row r="105">
@@ -1410,7 +1410,7 @@
         <v>43312</v>
       </c>
       <c r="B105" t="n">
-        <v>280164.1100000012</v>
+        <v>-27393.75000000001</v>
       </c>
     </row>
     <row r="106">
@@ -1418,7 +1418,7 @@
         <v>43343</v>
       </c>
       <c r="B106" t="n">
-        <v>286626.2980000012</v>
+        <v>-28012.49999999999</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         <v>43371</v>
       </c>
       <c r="B107" t="n">
-        <v>273059.6980000012</v>
+        <v>-28125</v>
       </c>
     </row>
     <row r="108">
@@ -1434,7 +1434,7 @@
         <v>43404</v>
       </c>
       <c r="B108" t="n">
-        <v>256218.2980000013</v>
+        <v>-31981.24999999998</v>
       </c>
     </row>
     <row r="109">
@@ -1442,7 +1442,7 @@
         <v>43434</v>
       </c>
       <c r="B109" t="n">
-        <v>301858.5980000013</v>
+        <v>-31981.24999999998</v>
       </c>
     </row>
     <row r="110">
@@ -1450,7 +1450,7 @@
         <v>43465</v>
       </c>
       <c r="B110" t="n">
-        <v>338003.7100000014</v>
+        <v>-31981.24999999998</v>
       </c>
     </row>
     <row r="111">
@@ -1458,7 +1458,7 @@
         <v>43496</v>
       </c>
       <c r="B111" t="n">
-        <v>298704.6100000014</v>
+        <v>-31981.24999999998</v>
       </c>
     </row>
     <row r="112">
@@ -1466,7 +1466,7 @@
         <v>43524</v>
       </c>
       <c r="B112" t="n">
-        <v>298347.0100000015</v>
+        <v>-31981.24999999998</v>
       </c>
     </row>
     <row r="113">
@@ -1474,7 +1474,7 @@
         <v>43553</v>
       </c>
       <c r="B113" t="n">
-        <v>315096.9350000015</v>
+        <v>-32124.99999999998</v>
       </c>
     </row>
     <row r="114">
@@ -1482,7 +1482,7 @@
         <v>43585</v>
       </c>
       <c r="B114" t="n">
-        <v>334538.5100000015</v>
+        <v>-31849.99999999998</v>
       </c>
     </row>
     <row r="115">
@@ -1490,7 +1490,7 @@
         <v>43616</v>
       </c>
       <c r="B115" t="n">
-        <v>309871.0980000016</v>
+        <v>-30856.24999999997</v>
       </c>
     </row>
     <row r="116">
@@ -1498,7 +1498,7 @@
         <v>43644</v>
       </c>
       <c r="B116" t="n">
-        <v>307083.8600000016</v>
+        <v>-32674.99999999998</v>
       </c>
     </row>
     <row r="117">
@@ -1506,7 +1506,7 @@
         <v>43677</v>
       </c>
       <c r="B117" t="n">
-        <v>300181.6730000015</v>
+        <v>-35162.49999999999</v>
       </c>
     </row>
     <row r="118">
@@ -1514,7 +1514,7 @@
         <v>43707</v>
       </c>
       <c r="B118" t="n">
-        <v>303573.8600000017</v>
+        <v>-33437.49999999999</v>
       </c>
     </row>
     <row r="119">
@@ -1522,7 +1522,7 @@
         <v>43738</v>
       </c>
       <c r="B119" t="n">
-        <v>282398.5350000017</v>
+        <v>-32162.49999999999</v>
       </c>
     </row>
     <row r="120">
@@ -1530,7 +1530,7 @@
         <v>43769</v>
       </c>
       <c r="B120" t="n">
-        <v>279681.9720000017</v>
+        <v>-34650</v>
       </c>
     </row>
     <row r="121">
@@ -1538,7 +1538,7 @@
         <v>43798</v>
       </c>
       <c r="B121" t="n">
-        <v>278863.5350000017</v>
+        <v>-36518.75</v>
       </c>
     </row>
     <row r="122">
@@ -1546,7 +1546,7 @@
         <v>43830</v>
       </c>
       <c r="B122" t="n">
-        <v>289251.6600000017</v>
+        <v>-34181.25000000001</v>
       </c>
     </row>
     <row r="123">
@@ -1554,7 +1554,7 @@
         <v>43861</v>
       </c>
       <c r="B123" t="n">
-        <v>305343.5470000017</v>
+        <v>-36225.00000000002</v>
       </c>
     </row>
     <row r="124">
@@ -1562,7 +1562,7 @@
         <v>43889</v>
       </c>
       <c r="B124" t="n">
-        <v>333651.8350000021</v>
+        <v>-41687.49999999998</v>
       </c>
     </row>
     <row r="125">
@@ -1570,7 +1570,7 @@
         <v>43921</v>
       </c>
       <c r="B125" t="n">
-        <v>416784.4600000022</v>
+        <v>-48593.75000000002</v>
       </c>
     </row>
     <row r="126">
@@ -1578,7 +1578,7 @@
         <v>43951</v>
       </c>
       <c r="B126" t="n">
-        <v>393247.910000002</v>
+        <v>-47500.00000000004</v>
       </c>
     </row>
     <row r="127">
@@ -1586,7 +1586,7 @@
         <v>43980</v>
       </c>
       <c r="B127" t="n">
-        <v>387329.7350000021</v>
+        <v>-49237.50000000001</v>
       </c>
     </row>
     <row r="128">
@@ -1594,7 +1594,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>358154.7980000021</v>
+        <v>-52106.25000000003</v>
       </c>
     </row>
     <row r="129">
@@ -1602,7 +1602,7 @@
         <v>44043</v>
       </c>
       <c r="B129" t="n">
-        <v>370318.5100000021</v>
+        <v>-48918.75000000002</v>
       </c>
     </row>
     <row r="130">
@@ -1610,7 +1610,7 @@
         <v>44074</v>
       </c>
       <c r="B130" t="n">
-        <v>372155.1730000021</v>
+        <v>-47168.75000000001</v>
       </c>
     </row>
     <row r="131">
@@ -1618,7 +1618,7 @@
         <v>44104</v>
       </c>
       <c r="B131" t="n">
-        <v>341092.9730000021</v>
+        <v>-50006.25000000001</v>
       </c>
     </row>
     <row r="132">
@@ -1626,7 +1626,7 @@
         <v>44134</v>
       </c>
       <c r="B132" t="n">
-        <v>314040.1610000021</v>
+        <v>-51012.50000000002</v>
       </c>
     </row>
     <row r="133">
@@ -1634,7 +1634,7 @@
         <v>44165</v>
       </c>
       <c r="B133" t="n">
-        <v>316407.0360000022</v>
+        <v>-47318.75000000003</v>
       </c>
     </row>
     <row r="134">
@@ -1642,7 +1642,7 @@
         <v>44196</v>
       </c>
       <c r="B134" t="n">
-        <v>320856.7230000022</v>
+        <v>-44000.00000000002</v>
       </c>
     </row>
     <row r="135">
@@ -1650,7 +1650,7 @@
         <v>44225</v>
       </c>
       <c r="B135" t="n">
-        <v>310422.6610000022</v>
+        <v>-45287.50000000001</v>
       </c>
     </row>
     <row r="136">
@@ -1658,7 +1658,7 @@
         <v>44253</v>
       </c>
       <c r="B136" t="n">
-        <v>330180.6730000022</v>
+        <v>-48756.25000000001</v>
       </c>
     </row>
     <row r="137">
@@ -1666,7 +1666,7 @@
         <v>44286</v>
       </c>
       <c r="B137" t="n">
-        <v>336684.8360000022</v>
+        <v>-44206.25000000001</v>
       </c>
     </row>
     <row r="138">
@@ -1674,7 +1674,7 @@
         <v>44316</v>
       </c>
       <c r="B138" t="n">
-        <v>341852.4230000022</v>
+        <v>-47837.50000000002</v>
       </c>
     </row>
     <row r="139">
@@ -1682,7 +1682,7 @@
         <v>44344</v>
       </c>
       <c r="B139" t="n">
-        <v>332086.0360000024</v>
+        <v>-49987.50000000003</v>
       </c>
     </row>
     <row r="140">
@@ -1690,7 +1690,7 @@
         <v>44377</v>
       </c>
       <c r="B140" t="n">
-        <v>349910.5110000024</v>
+        <v>-45475.00000000003</v>
       </c>
     </row>
     <row r="141">
@@ -1698,7 +1698,7 @@
         <v>44407</v>
       </c>
       <c r="B141" t="n">
-        <v>342259.3610000024</v>
+        <v>-45487.50000000003</v>
       </c>
     </row>
     <row r="142">
@@ -1706,7 +1706,7 @@
         <v>44439</v>
       </c>
       <c r="B142" t="n">
-        <v>361086.8610000024</v>
+        <v>-44856.25000000003</v>
       </c>
     </row>
     <row r="143">
@@ -1714,7 +1714,7 @@
         <v>44469</v>
       </c>
       <c r="B143" t="n">
-        <v>332209.6490000025</v>
+        <v>-49787.50000000004</v>
       </c>
     </row>
     <row r="144">
@@ -1722,7 +1722,7 @@
         <v>44498</v>
       </c>
       <c r="B144" t="n">
-        <v>334361.7110000026</v>
+        <v>-50318.75000000002</v>
       </c>
     </row>
     <row r="145">
@@ -1730,7 +1730,7 @@
         <v>44530</v>
       </c>
       <c r="B145" t="n">
-        <v>299615.5860000026</v>
+        <v>-47293.75000000002</v>
       </c>
     </row>
     <row r="146">
@@ -1738,7 +1738,7 @@
         <v>44561</v>
       </c>
       <c r="B146" t="n">
-        <v>270608.7110000027</v>
+        <v>-47906.25000000004</v>
       </c>
     </row>
     <row r="147">
@@ -1746,7 +1746,7 @@
         <v>44592</v>
       </c>
       <c r="B147" t="n">
-        <v>245140.4980000028</v>
+        <v>-46043.75000000005</v>
       </c>
     </row>
     <row r="148">
@@ -1754,7 +1754,7 @@
         <v>44620</v>
       </c>
       <c r="B148" t="n">
-        <v>263037.7360000028</v>
+        <v>-45706.25000000004</v>
       </c>
     </row>
     <row r="149">
@@ -1762,215 +1762,7 @@
         <v>44651</v>
       </c>
       <c r="B149" t="n">
-        <v>286773.9120000029</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
-        <v>44680</v>
-      </c>
-      <c r="B150" t="n">
-        <v>286773.9120000029</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B151" t="n">
-        <v>281718.9120000029</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
-        <v>44742</v>
-      </c>
-      <c r="B152" t="n">
-        <v>276658.912000003</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
-        <v>44771</v>
-      </c>
-      <c r="B153" t="n">
-        <v>276658.912000003</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
-        <v>44804</v>
-      </c>
-      <c r="B154" t="n">
-        <v>266558.912000003</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
-        <v>44834</v>
-      </c>
-      <c r="B155" t="n">
-        <v>266558.912000003</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
-        <v>44865</v>
-      </c>
-      <c r="B156" t="n">
-        <v>261508.912000003</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
-        <v>44895</v>
-      </c>
-      <c r="B157" t="n">
-        <v>261508.912000003</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
-        <v>44925</v>
-      </c>
-      <c r="B158" t="n">
-        <v>261508.912000003</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="B159" t="n">
-        <v>261508.912000003</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="B160" t="n">
-        <v>256458.912000003</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
-        <v>45016</v>
-      </c>
-      <c r="B161" t="n">
-        <v>251398.9120000032</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
-        <v>45044</v>
-      </c>
-      <c r="B162" t="n">
-        <v>251398.9120000032</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
-        <v>45077</v>
-      </c>
-      <c r="B163" t="n">
-        <v>246348.9120000032</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
-        <v>45107</v>
-      </c>
-      <c r="B164" t="n">
-        <v>253353.9120000032</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="B165" t="n">
-        <v>263763.9120000032</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
-        <v>45169</v>
-      </c>
-      <c r="B166" t="n">
-        <v>243423.9120000032</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
-        <v>45198</v>
-      </c>
-      <c r="B167" t="n">
-        <v>298223.9120000032</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="B168" t="n">
-        <v>357223.9120000032</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="B169" t="n">
-        <v>251923.9120000032</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
-        <v>45289</v>
-      </c>
-      <c r="B170" t="n">
-        <v>256848.9120000032</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B171" t="n">
-        <v>241823.9120000032</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B172" t="n">
-        <v>236773.9120000032</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
-        <v>45379</v>
-      </c>
-      <c r="B173" t="n">
-        <v>236773.9120000032</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
-        <v>45412</v>
-      </c>
-      <c r="B174" t="n">
-        <v>231343.9120000033</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
-        <v>45415</v>
-      </c>
-      <c r="B175" t="n">
-        <v>231343.9120000033</v>
+        <v>-43637.50000000003</v>
       </c>
     </row>
   </sheetData>

--- a/TradingSimula_18-2022/TF-System#3_1R.xlsx
+++ b/TradingSimula_18-2022/TF-System#3_1R.xlsx
@@ -610,7 +610,7 @@
         <v>40268</v>
       </c>
       <c r="B5" t="n">
-        <v>-2500.000000000002</v>
+        <v>-3650</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>40298</v>
       </c>
       <c r="B6" t="n">
-        <v>174.9999999999807</v>
+        <v>-1581.25000000002</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>40326</v>
       </c>
       <c r="B7" t="n">
-        <v>13012.49999999998</v>
+        <v>15649.99999999998</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>40359</v>
       </c>
       <c r="B8" t="n">
-        <v>13424.99999999999</v>
+        <v>16906.24999999998</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>40389</v>
       </c>
       <c r="B9" t="n">
-        <v>2600.000000000014</v>
+        <v>5762.500000000035</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         <v>40421</v>
       </c>
       <c r="B10" t="n">
-        <v>-2068.749999999991</v>
+        <v>2781.250000000011</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>40451</v>
       </c>
       <c r="B11" t="n">
-        <v>-2068.749999999991</v>
+        <v>6331.250000000022</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>40480</v>
       </c>
       <c r="B12" t="n">
-        <v>-2068.749999999991</v>
+        <v>14168.75000000003</v>
       </c>
     </row>
     <row r="13">
@@ -674,7 +674,7 @@
         <v>40512</v>
       </c>
       <c r="B13" t="n">
-        <v>7918.749999999991</v>
+        <v>14256.25000000001</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         <v>40543</v>
       </c>
       <c r="B14" t="n">
-        <v>3031.250000000002</v>
+        <v>4656.250000000024</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>40574</v>
       </c>
       <c r="B15" t="n">
-        <v>-1093.749999999988</v>
+        <v>-2168.749999999962</v>
       </c>
     </row>
     <row r="16">
@@ -698,7 +698,7 @@
         <v>40602</v>
       </c>
       <c r="B16" t="n">
-        <v>-2506.249999999999</v>
+        <v>-5087.499999999973</v>
       </c>
     </row>
     <row r="17">
@@ -706,7 +706,7 @@
         <v>40633</v>
       </c>
       <c r="B17" t="n">
-        <v>-7125.000000000009</v>
+        <v>-15837.5</v>
       </c>
     </row>
     <row r="18">
@@ -714,7 +714,7 @@
         <v>40662</v>
       </c>
       <c r="B18" t="n">
-        <v>-3425.000000000028</v>
+        <v>-19212.5</v>
       </c>
     </row>
     <row r="19">
@@ -722,7 +722,7 @@
         <v>40694</v>
       </c>
       <c r="B19" t="n">
-        <v>-15837.5</v>
+        <v>-33156.24999999997</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         <v>40724</v>
       </c>
       <c r="B20" t="n">
-        <v>-17231.25</v>
+        <v>-37749.99999999997</v>
       </c>
     </row>
     <row r="21">
@@ -738,7 +738,7 @@
         <v>40753</v>
       </c>
       <c r="B21" t="n">
-        <v>-17231.25</v>
+        <v>-37374.99999999996</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>40786</v>
       </c>
       <c r="B22" t="n">
-        <v>-17231.25</v>
+        <v>-36212.49999999998</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>40816</v>
       </c>
       <c r="B23" t="n">
-        <v>-17231.25</v>
+        <v>-33118.74999999997</v>
       </c>
     </row>
     <row r="24">
@@ -762,7 +762,7 @@
         <v>40847</v>
       </c>
       <c r="B24" t="n">
-        <v>-17231.25</v>
+        <v>-38662.49999999999</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>40877</v>
       </c>
       <c r="B25" t="n">
-        <v>-17231.25</v>
+        <v>-37312.50000000001</v>
       </c>
     </row>
     <row r="26">
@@ -778,7 +778,7 @@
         <v>40907</v>
       </c>
       <c r="B26" t="n">
-        <v>-17231.25</v>
+        <v>-37793.75</v>
       </c>
     </row>
     <row r="27">
@@ -786,7 +786,7 @@
         <v>40939</v>
       </c>
       <c r="B27" t="n">
-        <v>-22287.50000000002</v>
+        <v>-45587.50000000001</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         <v>40968</v>
       </c>
       <c r="B28" t="n">
-        <v>-21675.00000000003</v>
+        <v>-36062.50000000003</v>
       </c>
     </row>
     <row r="29">
@@ -802,7 +802,7 @@
         <v>40998</v>
       </c>
       <c r="B29" t="n">
-        <v>-21675.00000000003</v>
+        <v>-33518.75000000004</v>
       </c>
     </row>
     <row r="30">
@@ -810,7 +810,7 @@
         <v>41029</v>
       </c>
       <c r="B30" t="n">
-        <v>-23012.50000000003</v>
+        <v>-41893.75000000003</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +818,7 @@
         <v>41060</v>
       </c>
       <c r="B31" t="n">
-        <v>-27525.00000000003</v>
+        <v>-44262.50000000005</v>
       </c>
     </row>
     <row r="32">
@@ -826,7 +826,7 @@
         <v>41089</v>
       </c>
       <c r="B32" t="n">
-        <v>-27525.00000000003</v>
+        <v>-51687.50000000002</v>
       </c>
     </row>
     <row r="33">
@@ -834,7 +834,7 @@
         <v>41121</v>
       </c>
       <c r="B33" t="n">
-        <v>-29337.50000000003</v>
+        <v>-53525.00000000001</v>
       </c>
     </row>
     <row r="34">
@@ -842,7 +842,7 @@
         <v>41152</v>
       </c>
       <c r="B34" t="n">
-        <v>-32581.25000000002</v>
+        <v>-58025.00000000001</v>
       </c>
     </row>
     <row r="35">
@@ -850,7 +850,7 @@
         <v>41180</v>
       </c>
       <c r="B35" t="n">
-        <v>-31918.75000000001</v>
+        <v>-60325.00000000001</v>
       </c>
     </row>
     <row r="36">
@@ -858,7 +858,7 @@
         <v>41213</v>
       </c>
       <c r="B36" t="n">
-        <v>-30606.25000000002</v>
+        <v>-59068.75000000001</v>
       </c>
     </row>
     <row r="37">
@@ -866,7 +866,7 @@
         <v>41243</v>
       </c>
       <c r="B37" t="n">
-        <v>-30193.75000000004</v>
+        <v>-57068.75000000003</v>
       </c>
     </row>
     <row r="38">
@@ -874,7 +874,7 @@
         <v>41274</v>
       </c>
       <c r="B38" t="n">
-        <v>-27756.25000000003</v>
+        <v>-45762.5</v>
       </c>
     </row>
     <row r="39">
@@ -882,7 +882,7 @@
         <v>41305</v>
       </c>
       <c r="B39" t="n">
-        <v>-23131.25000000001</v>
+        <v>-35968.74999999999</v>
       </c>
     </row>
     <row r="40">
@@ -890,7 +890,7 @@
         <v>41333</v>
       </c>
       <c r="B40" t="n">
-        <v>-28168.75000000001</v>
+        <v>-34812.49999999999</v>
       </c>
     </row>
     <row r="41">
@@ -898,7 +898,7 @@
         <v>41362</v>
       </c>
       <c r="B41" t="n">
-        <v>-24968.75</v>
+        <v>-29499.99999999999</v>
       </c>
     </row>
     <row r="42">
@@ -906,7 +906,7 @@
         <v>41394</v>
       </c>
       <c r="B42" t="n">
-        <v>-29256.25</v>
+        <v>-31356.24999999998</v>
       </c>
     </row>
     <row r="43">
@@ -914,7 +914,7 @@
         <v>41425</v>
       </c>
       <c r="B43" t="n">
-        <v>-26968.75000000001</v>
+        <v>-22856.24999999999</v>
       </c>
     </row>
     <row r="44">
@@ -922,7 +922,7 @@
         <v>41453</v>
       </c>
       <c r="B44" t="n">
-        <v>-27456.25000000001</v>
+        <v>-36731.25000000001</v>
       </c>
     </row>
     <row r="45">
@@ -930,7 +930,7 @@
         <v>41486</v>
       </c>
       <c r="B45" t="n">
-        <v>-31406.25000000002</v>
+        <v>-45118.75</v>
       </c>
     </row>
     <row r="46">
@@ -938,7 +938,7 @@
         <v>41516</v>
       </c>
       <c r="B46" t="n">
-        <v>-29768.75</v>
+        <v>-43481.24999999999</v>
       </c>
     </row>
     <row r="47">
@@ -946,7 +946,7 @@
         <v>41547</v>
       </c>
       <c r="B47" t="n">
-        <v>-33937.50000000001</v>
+        <v>-45724.99999999998</v>
       </c>
     </row>
     <row r="48">
@@ -954,7 +954,7 @@
         <v>41578</v>
       </c>
       <c r="B48" t="n">
-        <v>-35025</v>
+        <v>-47618.74999999999</v>
       </c>
     </row>
     <row r="49">
@@ -962,7 +962,7 @@
         <v>41607</v>
       </c>
       <c r="B49" t="n">
-        <v>-37487.50000000001</v>
+        <v>-48131.24999999999</v>
       </c>
     </row>
     <row r="50">
@@ -970,7 +970,7 @@
         <v>41639</v>
       </c>
       <c r="B50" t="n">
-        <v>-41362.50000000001</v>
+        <v>-50581.25</v>
       </c>
     </row>
     <row r="51">
@@ -978,7 +978,7 @@
         <v>41670</v>
       </c>
       <c r="B51" t="n">
-        <v>-41362.50000000001</v>
+        <v>-54793.74999999999</v>
       </c>
     </row>
     <row r="52">
@@ -986,7 +986,7 @@
         <v>41698</v>
       </c>
       <c r="B52" t="n">
-        <v>-41362.50000000001</v>
+        <v>-60574.99999999997</v>
       </c>
     </row>
     <row r="53">
@@ -994,7 +994,7 @@
         <v>41729</v>
       </c>
       <c r="B53" t="n">
-        <v>-42550.00000000001</v>
+        <v>-64018.74999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1002,7 +1002,7 @@
         <v>41759</v>
       </c>
       <c r="B54" t="n">
-        <v>-41350.00000000001</v>
+        <v>-60162.49999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1010,7 +1010,7 @@
         <v>41789</v>
       </c>
       <c r="B55" t="n">
-        <v>-44300.00000000001</v>
+        <v>-63368.74999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1018,7 +1018,7 @@
         <v>41820</v>
       </c>
       <c r="B56" t="n">
-        <v>-44524.99999999999</v>
+        <v>-60937.49999999997</v>
       </c>
     </row>
     <row r="57">
@@ -1026,7 +1026,7 @@
         <v>41851</v>
       </c>
       <c r="B57" t="n">
-        <v>-40699.99999999997</v>
+        <v>-60431.24999999994</v>
       </c>
     </row>
     <row r="58">
@@ -1034,7 +1034,7 @@
         <v>41880</v>
       </c>
       <c r="B58" t="n">
-        <v>-37487.49999999999</v>
+        <v>-57124.99999999996</v>
       </c>
     </row>
     <row r="59">
@@ -1042,7 +1042,7 @@
         <v>41912</v>
       </c>
       <c r="B59" t="n">
-        <v>-31099.99999999998</v>
+        <v>-42324.99999999996</v>
       </c>
     </row>
     <row r="60">
@@ -1050,7 +1050,7 @@
         <v>41943</v>
       </c>
       <c r="B60" t="n">
-        <v>-29787.49999999998</v>
+        <v>-37074.99999999995</v>
       </c>
     </row>
     <row r="61">
@@ -1058,7 +1058,7 @@
         <v>41971</v>
       </c>
       <c r="B61" t="n">
-        <v>-28612.49999999997</v>
+        <v>-27549.99999999994</v>
       </c>
     </row>
     <row r="62">
@@ -1066,7 +1066,7 @@
         <v>42004</v>
       </c>
       <c r="B62" t="n">
-        <v>-24387.49999999999</v>
+        <v>-22037.49999999996</v>
       </c>
     </row>
     <row r="63">
@@ -1074,7 +1074,7 @@
         <v>42034</v>
       </c>
       <c r="B63" t="n">
-        <v>-14249.99999999997</v>
+        <v>-10731.24999999993</v>
       </c>
     </row>
     <row r="64">
@@ -1082,7 +1082,7 @@
         <v>42062</v>
       </c>
       <c r="B64" t="n">
-        <v>-12987.49999999997</v>
+        <v>-9862.499999999945</v>
       </c>
     </row>
     <row r="65">
@@ -1090,7 +1090,7 @@
         <v>42094</v>
       </c>
       <c r="B65" t="n">
-        <v>-7399.999999999978</v>
+        <v>-268.7499999999527</v>
       </c>
     </row>
     <row r="66">
@@ -1098,7 +1098,7 @@
         <v>42124</v>
       </c>
       <c r="B66" t="n">
-        <v>-13799.99999999999</v>
+        <v>-8649.999999999958</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>42153</v>
       </c>
       <c r="B67" t="n">
-        <v>-20043.74999999997</v>
+        <v>-11349.99999999994</v>
       </c>
     </row>
     <row r="68">
@@ -1114,7 +1114,7 @@
         <v>42185</v>
       </c>
       <c r="B68" t="n">
-        <v>-20043.74999999997</v>
+        <v>-9956.249999999938</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         <v>42216</v>
       </c>
       <c r="B69" t="n">
-        <v>-20043.74999999997</v>
+        <v>-9237.499999999935</v>
       </c>
     </row>
     <row r="70">
@@ -1130,7 +1130,7 @@
         <v>42247</v>
       </c>
       <c r="B70" t="n">
-        <v>-20043.74999999997</v>
+        <v>-17993.74999999995</v>
       </c>
     </row>
     <row r="71">
@@ -1138,7 +1138,7 @@
         <v>42277</v>
       </c>
       <c r="B71" t="n">
-        <v>-20043.74999999997</v>
+        <v>-17762.49999999995</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1146,7 @@
         <v>42307</v>
       </c>
       <c r="B72" t="n">
-        <v>-20043.74999999997</v>
+        <v>-20381.24999999994</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1154,7 @@
         <v>42338</v>
       </c>
       <c r="B73" t="n">
-        <v>-19506.24999999997</v>
+        <v>-19618.74999999994</v>
       </c>
     </row>
     <row r="74">
@@ -1162,7 +1162,7 @@
         <v>42369</v>
       </c>
       <c r="B74" t="n">
-        <v>-25099.99999999996</v>
+        <v>-24062.49999999993</v>
       </c>
     </row>
     <row r="75">
@@ -1170,7 +1170,7 @@
         <v>42398</v>
       </c>
       <c r="B75" t="n">
-        <v>-25099.99999999996</v>
+        <v>-20987.49999999993</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         <v>42429</v>
       </c>
       <c r="B76" t="n">
-        <v>-27824.99999999996</v>
+        <v>-22143.74999999993</v>
       </c>
     </row>
     <row r="77">
@@ -1186,7 +1186,7 @@
         <v>42460</v>
       </c>
       <c r="B77" t="n">
-        <v>-21643.74999999996</v>
+        <v>-18637.49999999993</v>
       </c>
     </row>
     <row r="78">
@@ -1194,7 +1194,7 @@
         <v>42489</v>
       </c>
       <c r="B78" t="n">
-        <v>-20981.24999999995</v>
+        <v>-13187.49999999993</v>
       </c>
     </row>
     <row r="79">
@@ -1202,7 +1202,7 @@
         <v>42521</v>
       </c>
       <c r="B79" t="n">
-        <v>-23268.74999999996</v>
+        <v>-20556.24999999994</v>
       </c>
     </row>
     <row r="80">
@@ -1210,7 +1210,7 @@
         <v>42551</v>
       </c>
       <c r="B80" t="n">
-        <v>-22506.24999999996</v>
+        <v>-13662.49999999993</v>
       </c>
     </row>
     <row r="81">
@@ -1218,7 +1218,7 @@
         <v>42580</v>
       </c>
       <c r="B81" t="n">
-        <v>-23681.24999999997</v>
+        <v>-13424.99999999994</v>
       </c>
     </row>
     <row r="82">
@@ -1226,7 +1226,7 @@
         <v>42613</v>
       </c>
       <c r="B82" t="n">
-        <v>-23243.74999999996</v>
+        <v>-14074.99999999993</v>
       </c>
     </row>
     <row r="83">
@@ -1234,7 +1234,7 @@
         <v>42643</v>
       </c>
       <c r="B83" t="n">
-        <v>-24106.24999999995</v>
+        <v>-11768.74999999992</v>
       </c>
     </row>
     <row r="84">
@@ -1242,7 +1242,7 @@
         <v>42674</v>
       </c>
       <c r="B84" t="n">
-        <v>-20481.24999999996</v>
+        <v>-7812.499999999922</v>
       </c>
     </row>
     <row r="85">
@@ -1250,7 +1250,7 @@
         <v>42704</v>
       </c>
       <c r="B85" t="n">
-        <v>-24174.99999999997</v>
+        <v>-12631.24999999995</v>
       </c>
     </row>
     <row r="86">
@@ -1258,7 +1258,7 @@
         <v>42734</v>
       </c>
       <c r="B86" t="n">
-        <v>-23224.99999999999</v>
+        <v>-8149.999999999971</v>
       </c>
     </row>
     <row r="87">
@@ -1266,7 +1266,7 @@
         <v>42766</v>
       </c>
       <c r="B87" t="n">
-        <v>-26312.49999999998</v>
+        <v>-16268.74999999997</v>
       </c>
     </row>
     <row r="88">
@@ -1274,7 +1274,7 @@
         <v>42794</v>
       </c>
       <c r="B88" t="n">
-        <v>-23518.74999999997</v>
+        <v>-13737.49999999994</v>
       </c>
     </row>
     <row r="89">
@@ -1282,7 +1282,7 @@
         <v>42825</v>
       </c>
       <c r="B89" t="n">
-        <v>-24456.24999999998</v>
+        <v>-14724.99999999995</v>
       </c>
     </row>
     <row r="90">
@@ -1290,7 +1290,7 @@
         <v>42853</v>
       </c>
       <c r="B90" t="n">
-        <v>-26943.74999999998</v>
+        <v>-18868.74999999997</v>
       </c>
     </row>
     <row r="91">
@@ -1298,7 +1298,7 @@
         <v>42886</v>
       </c>
       <c r="B91" t="n">
-        <v>-27593.75</v>
+        <v>-19193.74999999998</v>
       </c>
     </row>
     <row r="92">
@@ -1306,7 +1306,7 @@
         <v>42916</v>
       </c>
       <c r="B92" t="n">
-        <v>-25637.49999999997</v>
+        <v>-22356.24999999996</v>
       </c>
     </row>
     <row r="93">
@@ -1314,7 +1314,7 @@
         <v>42947</v>
       </c>
       <c r="B93" t="n">
-        <v>-20718.74999999997</v>
+        <v>-16249.99999999995</v>
       </c>
     </row>
     <row r="94">
@@ -1322,7 +1322,7 @@
         <v>42978</v>
       </c>
       <c r="B94" t="n">
-        <v>-20074.99999999998</v>
+        <v>-13781.24999999996</v>
       </c>
     </row>
     <row r="95">
@@ -1330,7 +1330,7 @@
         <v>43007</v>
       </c>
       <c r="B95" t="n">
-        <v>-22775.00000000001</v>
+        <v>-22506.25000000001</v>
       </c>
     </row>
     <row r="96">
@@ -1338,7 +1338,7 @@
         <v>43039</v>
       </c>
       <c r="B96" t="n">
-        <v>-20481.25</v>
+        <v>-19743.74999999997</v>
       </c>
     </row>
     <row r="97">
@@ -1346,7 +1346,7 @@
         <v>43069</v>
       </c>
       <c r="B97" t="n">
-        <v>-23318.75</v>
+        <v>-24993.74999999997</v>
       </c>
     </row>
     <row r="98">
@@ -1354,7 +1354,7 @@
         <v>43098</v>
       </c>
       <c r="B98" t="n">
-        <v>-24481.25000000001</v>
+        <v>-26612.49999999999</v>
       </c>
     </row>
     <row r="99">
@@ -1362,7 +1362,7 @@
         <v>43131</v>
       </c>
       <c r="B99" t="n">
-        <v>-25906.25000000003</v>
+        <v>-20581.24999999999</v>
       </c>
     </row>
     <row r="100">
@@ -1370,7 +1370,7 @@
         <v>43159</v>
       </c>
       <c r="B100" t="n">
-        <v>-28787.50000000003</v>
+        <v>-23637.49999999999</v>
       </c>
     </row>
     <row r="101">
@@ -1378,7 +1378,7 @@
         <v>43188</v>
       </c>
       <c r="B101" t="n">
-        <v>-28087.50000000002</v>
+        <v>-21562.5</v>
       </c>
     </row>
     <row r="102">
@@ -1386,7 +1386,7 @@
         <v>43220</v>
       </c>
       <c r="B102" t="n">
-        <v>-31031.25000000001</v>
+        <v>-28149.99999999999</v>
       </c>
     </row>
     <row r="103">
@@ -1394,7 +1394,7 @@
         <v>43251</v>
       </c>
       <c r="B103" t="n">
-        <v>-27975.00000000001</v>
+        <v>-24249.99999999996</v>
       </c>
     </row>
     <row r="104">
@@ -1402,7 +1402,7 @@
         <v>43280</v>
       </c>
       <c r="B104" t="n">
-        <v>-27381.25000000001</v>
+        <v>-20318.74999999996</v>
       </c>
     </row>
     <row r="105">
@@ -1410,7 +1410,7 @@
         <v>43312</v>
       </c>
       <c r="B105" t="n">
-        <v>-27393.75000000001</v>
+        <v>-18574.99999999996</v>
       </c>
     </row>
     <row r="106">
@@ -1418,7 +1418,7 @@
         <v>43343</v>
       </c>
       <c r="B106" t="n">
-        <v>-28012.49999999999</v>
+        <v>-18618.74999999995</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         <v>43371</v>
       </c>
       <c r="B107" t="n">
-        <v>-28125</v>
+        <v>-19331.24999999997</v>
       </c>
     </row>
     <row r="108">
@@ -1434,7 +1434,7 @@
         <v>43404</v>
       </c>
       <c r="B108" t="n">
-        <v>-31981.24999999998</v>
+        <v>-25268.74999999994</v>
       </c>
     </row>
     <row r="109">
@@ -1442,7 +1442,7 @@
         <v>43434</v>
       </c>
       <c r="B109" t="n">
-        <v>-31981.24999999998</v>
+        <v>-24749.99999999994</v>
       </c>
     </row>
     <row r="110">
@@ -1450,7 +1450,7 @@
         <v>43465</v>
       </c>
       <c r="B110" t="n">
-        <v>-31981.24999999998</v>
+        <v>-29737.49999999995</v>
       </c>
     </row>
     <row r="111">
@@ -1458,7 +1458,7 @@
         <v>43496</v>
       </c>
       <c r="B111" t="n">
-        <v>-31981.24999999998</v>
+        <v>-32549.99999999993</v>
       </c>
     </row>
     <row r="112">
@@ -1466,7 +1466,7 @@
         <v>43524</v>
       </c>
       <c r="B112" t="n">
-        <v>-31981.24999999998</v>
+        <v>-34543.74999999991</v>
       </c>
     </row>
     <row r="113">
@@ -1474,7 +1474,7 @@
         <v>43553</v>
       </c>
       <c r="B113" t="n">
-        <v>-32124.99999999998</v>
+        <v>-36112.49999999993</v>
       </c>
     </row>
     <row r="114">
@@ -1482,7 +1482,7 @@
         <v>43585</v>
       </c>
       <c r="B114" t="n">
-        <v>-31849.99999999998</v>
+        <v>-36618.74999999993</v>
       </c>
     </row>
     <row r="115">
@@ -1490,7 +1490,7 @@
         <v>43616</v>
       </c>
       <c r="B115" t="n">
-        <v>-30856.24999999997</v>
+        <v>-35449.99999999991</v>
       </c>
     </row>
     <row r="116">
@@ -1498,7 +1498,7 @@
         <v>43644</v>
       </c>
       <c r="B116" t="n">
-        <v>-32674.99999999998</v>
+        <v>-36543.74999999993</v>
       </c>
     </row>
     <row r="117">
@@ -1506,7 +1506,7 @@
         <v>43677</v>
       </c>
       <c r="B117" t="n">
-        <v>-35162.49999999999</v>
+        <v>-39362.49999999992</v>
       </c>
     </row>
     <row r="118">
@@ -1514,7 +1514,7 @@
         <v>43707</v>
       </c>
       <c r="B118" t="n">
-        <v>-33437.49999999999</v>
+        <v>-34999.99999999993</v>
       </c>
     </row>
     <row r="119">
@@ -1522,7 +1522,7 @@
         <v>43738</v>
       </c>
       <c r="B119" t="n">
-        <v>-32162.49999999999</v>
+        <v>-39112.49999999993</v>
       </c>
     </row>
     <row r="120">
@@ -1530,7 +1530,7 @@
         <v>43769</v>
       </c>
       <c r="B120" t="n">
-        <v>-34650</v>
+        <v>-39462.49999999993</v>
       </c>
     </row>
     <row r="121">
@@ -1538,7 +1538,7 @@
         <v>43798</v>
       </c>
       <c r="B121" t="n">
-        <v>-36518.75</v>
+        <v>-39756.24999999992</v>
       </c>
     </row>
     <row r="122">
@@ -1546,7 +1546,7 @@
         <v>43830</v>
       </c>
       <c r="B122" t="n">
-        <v>-34181.25000000001</v>
+        <v>-40012.49999999994</v>
       </c>
     </row>
     <row r="123">
@@ -1554,7 +1554,7 @@
         <v>43861</v>
       </c>
       <c r="B123" t="n">
-        <v>-36225.00000000002</v>
+        <v>-44937.49999999996</v>
       </c>
     </row>
     <row r="124">
@@ -1562,7 +1562,7 @@
         <v>43889</v>
       </c>
       <c r="B124" t="n">
-        <v>-41687.49999999998</v>
+        <v>-48237.4999999999</v>
       </c>
     </row>
     <row r="125">
@@ -1570,7 +1570,7 @@
         <v>43921</v>
       </c>
       <c r="B125" t="n">
-        <v>-48593.75000000002</v>
+        <v>-52881.24999999994</v>
       </c>
     </row>
     <row r="126">
@@ -1578,7 +1578,7 @@
         <v>43951</v>
       </c>
       <c r="B126" t="n">
-        <v>-47500.00000000004</v>
+        <v>-52531.24999999997</v>
       </c>
     </row>
     <row r="127">
@@ -1586,7 +1586,7 @@
         <v>43980</v>
       </c>
       <c r="B127" t="n">
-        <v>-49237.50000000001</v>
+        <v>-53249.99999999994</v>
       </c>
     </row>
     <row r="128">
@@ -1594,7 +1594,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>-52106.25000000003</v>
+        <v>-61537.49999999994</v>
       </c>
     </row>
     <row r="129">
@@ -1602,7 +1602,7 @@
         <v>44043</v>
       </c>
       <c r="B129" t="n">
-        <v>-48918.75000000002</v>
+        <v>-51549.99999999994</v>
       </c>
     </row>
     <row r="130">
@@ -1610,7 +1610,7 @@
         <v>44074</v>
       </c>
       <c r="B130" t="n">
-        <v>-47168.75000000001</v>
+        <v>-48256.24999999993</v>
       </c>
     </row>
     <row r="131">
@@ -1618,7 +1618,7 @@
         <v>44104</v>
       </c>
       <c r="B131" t="n">
-        <v>-50006.25000000001</v>
+        <v>-52637.49999999993</v>
       </c>
     </row>
     <row r="132">
@@ -1626,7 +1626,7 @@
         <v>44134</v>
       </c>
       <c r="B132" t="n">
-        <v>-51012.50000000002</v>
+        <v>-53124.99999999993</v>
       </c>
     </row>
     <row r="133">
@@ -1634,7 +1634,7 @@
         <v>44165</v>
       </c>
       <c r="B133" t="n">
-        <v>-47318.75000000003</v>
+        <v>-51462.49999999994</v>
       </c>
     </row>
     <row r="134">
@@ -1642,7 +1642,7 @@
         <v>44196</v>
       </c>
       <c r="B134" t="n">
-        <v>-44000.00000000002</v>
+        <v>-48999.99999999994</v>
       </c>
     </row>
     <row r="135">
@@ -1650,7 +1650,7 @@
         <v>44225</v>
       </c>
       <c r="B135" t="n">
-        <v>-45287.50000000001</v>
+        <v>-50612.49999999993</v>
       </c>
     </row>
     <row r="136">
@@ -1658,7 +1658,7 @@
         <v>44253</v>
       </c>
       <c r="B136" t="n">
-        <v>-48756.25000000001</v>
+        <v>-50418.74999999993</v>
       </c>
     </row>
     <row r="137">
@@ -1666,7 +1666,7 @@
         <v>44286</v>
       </c>
       <c r="B137" t="n">
-        <v>-44206.25000000001</v>
+        <v>-42531.24999999994</v>
       </c>
     </row>
     <row r="138">
@@ -1674,7 +1674,7 @@
         <v>44316</v>
       </c>
       <c r="B138" t="n">
-        <v>-47837.50000000002</v>
+        <v>-47424.99999999993</v>
       </c>
     </row>
     <row r="139">
@@ -1682,7 +1682,7 @@
         <v>44344</v>
       </c>
       <c r="B139" t="n">
-        <v>-49987.50000000003</v>
+        <v>-46643.74999999994</v>
       </c>
     </row>
     <row r="140">
@@ -1690,7 +1690,7 @@
         <v>44377</v>
       </c>
       <c r="B140" t="n">
-        <v>-45475.00000000003</v>
+        <v>-43218.74999999995</v>
       </c>
     </row>
     <row r="141">
@@ -1698,7 +1698,7 @@
         <v>44407</v>
       </c>
       <c r="B141" t="n">
-        <v>-45487.50000000003</v>
+        <v>-45137.49999999997</v>
       </c>
     </row>
     <row r="142">
@@ -1706,7 +1706,7 @@
         <v>44439</v>
       </c>
       <c r="B142" t="n">
-        <v>-44856.25000000003</v>
+        <v>-43931.24999999996</v>
       </c>
     </row>
     <row r="143">
@@ -1714,7 +1714,7 @@
         <v>44469</v>
       </c>
       <c r="B143" t="n">
-        <v>-49787.50000000004</v>
+        <v>-48549.99999999998</v>
       </c>
     </row>
     <row r="144">
@@ -1722,7 +1722,7 @@
         <v>44498</v>
       </c>
       <c r="B144" t="n">
-        <v>-50318.75000000002</v>
+        <v>-53218.74999999994</v>
       </c>
     </row>
     <row r="145">
@@ -1730,7 +1730,7 @@
         <v>44530</v>
       </c>
       <c r="B145" t="n">
-        <v>-47293.75000000002</v>
+        <v>-53562.49999999996</v>
       </c>
     </row>
     <row r="146">
@@ -1738,7 +1738,7 @@
         <v>44561</v>
       </c>
       <c r="B146" t="n">
-        <v>-47906.25000000004</v>
+        <v>-54574.99999999997</v>
       </c>
     </row>
     <row r="147">
@@ -1746,7 +1746,7 @@
         <v>44592</v>
       </c>
       <c r="B147" t="n">
-        <v>-46043.75000000005</v>
+        <v>-55312.49999999997</v>
       </c>
     </row>
     <row r="148">
@@ -1754,7 +1754,7 @@
         <v>44620</v>
       </c>
       <c r="B148" t="n">
-        <v>-45706.25000000004</v>
+        <v>-55324.99999999996</v>
       </c>
     </row>
     <row r="149">
@@ -1762,7 +1762,7 @@
         <v>44651</v>
       </c>
       <c r="B149" t="n">
-        <v>-43637.50000000003</v>
+        <v>-50149.99999999994</v>
       </c>
     </row>
   </sheetData>

--- a/TradingSimula_18-2022/TF-System#3_1R.xlsx
+++ b/TradingSimula_18-2022/TF-System#3_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1178 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-4833.550000000003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-6619.850000000131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>-3650</v>
+        <v>-16574.85000000013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>-1581.25000000002</v>
+        <v>-29595.22500000014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>15649.99999999998</v>
+        <v>-41541.27500000022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>16906.24999999998</v>
+        <v>-45338.17500000023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>5762.500000000035</v>
+        <v>-63868.52500000022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>2781.250000000011</v>
+        <v>-74712.50000000022</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>6331.250000000022</v>
+        <v>-92368.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>14168.75000000003</v>
+        <v>-113043.8499999998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>14256.25000000001</v>
+        <v>-104349.0499999998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>4656.250000000024</v>
+        <v>-82695.19999999975</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>-2168.749999999962</v>
+        <v>-90379.67499999976</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>-5087.499999999973</v>
+        <v>-138459.9749999998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>-15837.5</v>
+        <v>-151125.6749999997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>-19212.5</v>
+        <v>-176492.4249999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>-33156.24999999997</v>
+        <v>-188394.4249999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>-37749.99999999997</v>
+        <v>-202661.6999999996</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>-37374.99999999996</v>
+        <v>-234117.0249999998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>-36212.49999999998</v>
+        <v>-245373.9749999998</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>-33118.74999999997</v>
+        <v>-267583.0249999997</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>-38662.49999999999</v>
+        <v>-272308.9749999995</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>-37312.50000000001</v>
+        <v>-307924.8999999994</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>-37793.75</v>
+        <v>-305161.7749999996</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>-45587.50000000001</v>
+        <v>-307758.0499999995</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>-36062.50000000003</v>
+        <v>-313247.3999999995</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>-33518.75000000004</v>
+        <v>-295251.8249999995</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>-41893.75000000003</v>
+        <v>-307164.5999999996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>-44262.50000000005</v>
+        <v>-315279.1249999995</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>-51687.50000000002</v>
+        <v>-348338.1749999996</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>-53525.00000000001</v>
+        <v>-262306.0249999993</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>-58025.00000000001</v>
+        <v>-301066.6999999994</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>-60325.00000000001</v>
+        <v>-217137.9749999993</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>-59068.75000000001</v>
+        <v>-373317.4499999996</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>-57068.75000000003</v>
+        <v>-398043.8249999991</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>-45762.5</v>
+        <v>-441802.6999999991</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>-35968.74999999999</v>
+        <v>-419053.2499999991</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>-34812.49999999999</v>
+        <v>-399115.5499999991</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>-29499.99999999999</v>
+        <v>-371203.1249999991</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>-31356.24999999998</v>
+        <v>-422047.624999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>-22856.24999999999</v>
+        <v>-429554.7249999989</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>-36731.25000000001</v>
+        <v>-446131.2249999989</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>-45118.75</v>
+        <v>-425198.149999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>-43481.24999999999</v>
+        <v>-429144.1999999989</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>-45724.99999999998</v>
+        <v>-455414.9249999989</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>-47618.74999999999</v>
+        <v>-250502.1499999991</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>-48131.24999999999</v>
+        <v>-320796.1499999988</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>-50581.25</v>
+        <v>44166.80000000098</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>-54793.74999999999</v>
+        <v>298553.800000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>-60574.99999999997</v>
+        <v>803676.4750000008</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>-64018.74999999999</v>
+        <v>738353.4250000007</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>-60162.49999999999</v>
+        <v>350044.3750000008</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>-63368.74999999999</v>
+        <v>509439.6500000006</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>-60937.49999999997</v>
+        <v>237297.0000000006</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>-60431.24999999994</v>
+        <v>241783.3250000006</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>-57124.99999999996</v>
+        <v>234273.0000000006</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>-42324.99999999996</v>
+        <v>233912.4250000006</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>-37074.99999999995</v>
+        <v>224705.2250000014</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>-27549.99999999994</v>
+        <v>212160.5000000013</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>-22037.49999999996</v>
+        <v>401100.6250000011</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>-10731.24999999993</v>
+        <v>394264.350000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>-9862.499999999945</v>
+        <v>192581.1500000013</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>-268.7499999999527</v>
+        <v>186278.4000000012</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>-8649.999999999958</v>
+        <v>157683.0250000008</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>-11349.99999999994</v>
+        <v>163392.0750000009</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>-9956.249999999938</v>
+        <v>147654.750000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>-9237.499999999935</v>
+        <v>144686.675000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>-17993.74999999995</v>
+        <v>174987.500000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>-17762.49999999995</v>
+        <v>176094.2750000011</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>-20381.24999999994</v>
+        <v>137505.1250000016</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>-19618.74999999994</v>
+        <v>105044.4250000018</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>-24062.49999999993</v>
+        <v>72149.72500000155</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>-20987.49999999993</v>
+        <v>53503.20000000166</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>-22143.74999999993</v>
+        <v>79926.57500000166</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>-18637.49999999993</v>
+        <v>-12805.74999999816</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>-13187.49999999993</v>
+        <v>-119178.8499999996</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>-20556.24999999994</v>
+        <v>-148046.825</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>-13662.49999999993</v>
+        <v>-222301.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>-13424.99999999994</v>
+        <v>-221461.325</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>-14074.99999999993</v>
+        <v>-232314.2499999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>-11768.74999999992</v>
+        <v>-221422.7999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>-7812.499999999922</v>
+        <v>-211268.9249999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>-12631.24999999995</v>
+        <v>-189994.0249999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>-8149.999999999971</v>
+        <v>-233036.6249999997</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>-16268.74999999997</v>
+        <v>-272386.0749999998</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>-13737.49999999994</v>
+        <v>-298476.3000000005</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>-14724.99999999995</v>
+        <v>-336771.0500000005</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>-18868.74999999997</v>
+        <v>-337156.4750000005</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>-19193.74999999998</v>
+        <v>-292090.0750000016</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>-22356.24999999996</v>
+        <v>-308288.5750000017</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>-16249.99999999995</v>
+        <v>-316181.1500000017</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>-13781.24999999996</v>
+        <v>-335310.8750000017</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>-22506.25000000001</v>
+        <v>-329401.0750000017</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>-19743.74999999997</v>
+        <v>-297521.2000000017</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>-24993.74999999997</v>
+        <v>-315878.0250000018</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>-26612.49999999999</v>
+        <v>-304550.2000000022</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>-20581.24999999999</v>
+        <v>-376806.4250000034</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>-23637.49999999999</v>
+        <v>249058.0749999966</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>-21562.5</v>
+        <v>-382559.9250000034</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>-28149.99999999999</v>
+        <v>-419732.8700000034</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>-24249.99999999996</v>
+        <v>-401665.3950000035</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>-20318.74999999996</v>
+        <v>-373048.5100000034</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>-18574.99999999996</v>
+        <v>-421511.8600000034</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>-18618.74999999995</v>
+        <v>-408602.8950000026</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>-19331.24999999997</v>
+        <v>-370009.2450000042</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>-25268.74999999994</v>
+        <v>-153492.6100000039</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>-24749.99999999994</v>
+        <v>-56938.28000000397</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>-29737.49999999995</v>
+        <v>-84527.82500000409</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>-32549.99999999993</v>
+        <v>-13527.12000000408</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>-34543.74999999991</v>
+        <v>70260.51499999598</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>-36112.49999999993</v>
+        <v>-9188.725000004471</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>-36618.74999999993</v>
+        <v>-69015.17000000452</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>-35449.99999999991</v>
+        <v>-64603.69500000451</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>-36543.74999999993</v>
+        <v>-70213.79500000451</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>-39362.49999999992</v>
+        <v>-87965.78500000387</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>-34999.99999999993</v>
+        <v>424260.004999995</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>-39112.49999999993</v>
+        <v>412102.3799999949</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>-39462.49999999993</v>
+        <v>737566.1549999958</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>-39756.24999999992</v>
+        <v>1316205.879999995</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>-40012.49999999994</v>
+        <v>1728805.269999995</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>-44937.49999999996</v>
+        <v>1021615.264999995</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>-48237.4999999999</v>
+        <v>1003977.979999995</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>-52881.24999999994</v>
+        <v>1017138.054999995</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>-52531.24999999997</v>
+        <v>1014476.729999996</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>-53249.99999999994</v>
+        <v>1004993.079999996</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>-61537.49999999994</v>
+        <v>996395.4399999955</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>-51549.99999999994</v>
+        <v>966678.7299999952</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>-48256.24999999993</v>
+        <v>974420.0649999953</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>-52637.49999999993</v>
+        <v>946551.2199999961</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>-53124.99999999993</v>
+        <v>978937.0799999962</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>-51462.49999999994</v>
+        <v>-24409.18000000428</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>-48999.99999999994</v>
+        <v>-8991.145000003751</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>-50612.49999999993</v>
+        <v>-74423.18000000389</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>-50418.74999999993</v>
+        <v>-84175.57000000437</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>-42531.24999999994</v>
+        <v>-214248.8350000044</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>-47424.99999999993</v>
+        <v>-172815.4700000043</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>-46643.74999999994</v>
+        <v>-250911.6950000048</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>-43218.74999999995</v>
+        <v>-243591.410000005</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>-45137.49999999997</v>
+        <v>-227878.3850000047</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>-43931.24999999996</v>
+        <v>-206647.9300000048</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>-48549.99999999998</v>
+        <v>-298228.730000005</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>-53218.74999999994</v>
+        <v>-350278.880000005</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>-53562.49999999996</v>
+        <v>-357720.8800000051</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>-54574.99999999997</v>
+        <v>-359824.695000005</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>-55312.49999999997</v>
+        <v>-361463.5300000051</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>-55324.99999999996</v>
+        <v>-400043.5000000045</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
+        <v>40998</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-386572.0650000044</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-405514.8000000045</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-368360.9950000046</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41089</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-395470.8550000047</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-392161.1050000046</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-399462.4750000045</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1160332.194999995</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-2295.115000004269</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-498395.885000002</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-495203.175000002</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-480743.5900000022</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-463106.7700000021</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41361</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-417996.435000002</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-399441.5500000017</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-378712.4650000018</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41453</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-426989.1800000017</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-436899.1450000018</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41516</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-465301.2450000009</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-501523.4050000008</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-501068.5300000009</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-501678.480000001</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-532618.5300000005</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-529413.9550000005</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-533353.4300000005</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-397726.2300000007</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-535127.1050000002</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41789</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-553846.2200000002</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-566745.3400000002</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-577908.4400000005</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-580498.9150000003</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-572904.2699999999</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-585278.7399999998</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-557977.0899999999</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-551408.7899999984</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-149342.1049999985</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-572579.9799999993</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-567096.4649999992</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-588989.094999999</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-589147.344999999</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-588577.0199999991</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-654860.2549999988</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-682474.2549999985</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-705843.3999999985</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-907209.1149999981</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-605422.7949999978</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-827991.8649999977</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-668324.3099999973</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-790454.9599999982</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-792665.8249999984</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-771811.7949999983</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-783135.0649999983</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-772298.8149999983</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-778601.2499999983</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-807825.6249999983</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-817990.8199999981</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-811268.4199999981</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-828963.3199999988</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-759796.5049999988</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-781081.9849999989</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-673254.944999998</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-714084.9049999978</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-689473.594999998</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-662178.9199999978</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-645349.8049999978</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-683107.7799999979</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-680742.3699999989</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-653221.9149999984</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-538914.2149999983</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-438895.6399999984</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-389584.5999999982</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-224791.2299999983</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-498718.1299999984</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-514032.8799999984</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-521738.0249999984</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-526176.2899999982</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-544582.1249999984</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-555882.8399999996</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-550640.4999999991</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-562264.1549999991</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-585736.3749999988</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-544623.629999999</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-517734.1399999983</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-543904.6899999983</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-563018.2649999983</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-558709.9399999988</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-544287.8649999988</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-583636.2249999985</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-580507.8149999984</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-594625.9499999982</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-636609.9049999977</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-674987.6149999977</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-673563.5799999979</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-688386.2549999976</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-668919.7799999974</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-661314.6849999977</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-651023.1249999974</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-659609.6299999978</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-684879.079999998</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-739982.4549999979</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-757769.7349999978</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>580741.1650000027</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2790990.165000004</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>186727.9650000036</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>264160.3050000027</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-285548.2549999957</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1844222.475000002</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2181720.015000004</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3329332.815000003</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2133821.275000002</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3986047.215000005</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>5577606.595000003</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3364412.625000004</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>3030335.325000003</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2278363.665000003</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1022999.615000004</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1031633.345000005</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1004910.485000004</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>975621.3650000048</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>966594.6000000047</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>785557.8250000059</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B149" t="n">
-        <v>-50149.99999999994</v>
+      <c r="B269" t="n">
+        <v>790992.215000006</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>770335.2900000064</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>751538.2150000063</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>720304.7150000063</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>675422.8200000069</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>626631.7450000072</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>638203.4800000072</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>614596.6400000071</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>589499.530000007</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>585199.235000007</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>589913.1350000065</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>555209.210000006</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>558703.3050000061</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>563342.2350000063</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>544044.1450000063</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>522812.3450000064</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>529834.4100000064</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>493095.7950000062</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>515812.9450000061</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>515107.7850000063</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>578789.7850000073</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>817205.3650000076</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>817224.5500000076</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>914427.8500000077</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1056886.750000008</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>795165.7600000082</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>800069.1500000085</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>799790.400000009</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>812039.1000000089</v>
       </c>
     </row>
   </sheetData>
